--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P38_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P38_trail14 Features.xlsx
@@ -4593,7 +4593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4604,29 +4604,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4647,115 +4645,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4772,72 +4760,66 @@
         <v>1.758088820088789e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.1177311081358329</v>
+        <v>6.453464305213527e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.09179339528704</v>
+        <v>5.921732092702772e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>6.453464305213527e-07</v>
+        <v>-0.04525436265957634</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.921732092702772e-06</v>
+        <v>0.1485199348452967</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.04525436265957634</v>
+        <v>0.02410074983002771</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1485199348452967</v>
+        <v>1.580353272113716</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02410074983002771</v>
+        <v>1.57515158757146</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.495960189187459</v>
+        <v>4.037452395693455</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.57515158757146</v>
+        <v>2.530250841017529e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.037452395693455</v>
+        <v>20529274.77606128</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.530250841017529e-14</v>
+        <v>5.13241261637212e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>20529274.77606128</v>
+        <v>10.66377057990985</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5.13241261637212e-06</v>
+        <v>0.0001080703960146102</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>10.66377057990985</v>
+        <v>7.02946703238421</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001080703960146102</v>
+        <v>1.564614778765306</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.02946703238421</v>
+        <v>0.005340126436916831</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.564614778765306</v>
+        <v>3.21069993789848</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.005340126436916831</v>
+        <v>0.9376225329227222</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.21069993789848</v>
+        <v>1.868065638370218</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9376225329227222</v>
+        <v>8</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.868065638370218</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2600338985643135</v>
       </c>
     </row>
@@ -4852,72 +4834,66 @@
         <v>1.802874185331817e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.09824303199929797</v>
+        <v>6.707005133725614e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.091135461829914</v>
+        <v>5.913811395165655e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.707005133725614e-07</v>
+        <v>-0.0443634569395126</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>5.913811395165655e-06</v>
+        <v>0.1446779484401536</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.0443634569395126</v>
+        <v>0.02289909912191766</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1446779484401536</v>
+        <v>1.575082268985659</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02289909912191766</v>
+        <v>1.553911328944272</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.490070235534012</v>
+        <v>4.061791487242252</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.553911328944272</v>
+        <v>2.500018124727507e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.061791487242252</v>
+        <v>19993835.5339571</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.500018124727507e-14</v>
+        <v>5.228793677527722e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>19993835.5339571</v>
+        <v>9.993908938198343</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>5.228793677527722e-06</v>
+        <v>0.0001108884590027703</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>9.993908938198343</v>
+        <v>7.153865753807773</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001108884590027703</v>
+        <v>1.524166663826682</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.153865753807773</v>
+        <v>0.005675026847493658</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.524166663826682</v>
+        <v>3.170899240909918</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.005675026847493658</v>
+        <v>0.9365604947974009</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.170899240909918</v>
+        <v>1.861008436453506</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9365604947974009</v>
+        <v>8</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.861008436453506</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2561862914104597</v>
       </c>
     </row>
@@ -4932,72 +4908,66 @@
         <v>1.849908393829932e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.08307210472243619</v>
+        <v>6.888596700786317e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.080823467068582</v>
+        <v>5.905531872103453e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.888596700786317e-07</v>
+        <v>-0.04647616575460987</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.905531872103453e-06</v>
+        <v>0.139903637929961</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.04647616575460987</v>
+        <v>0.02173204627874066</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.139903637929961</v>
+        <v>1.568448915940494</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02173204627874066</v>
+        <v>1.574543531221108</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.484417812340995</v>
+        <v>4.052178286544478</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.574543531221108</v>
+        <v>2.511894050157332e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.052178286544478</v>
+        <v>19142409.49588244</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.511894050157332e-14</v>
+        <v>5.354813257898068e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>19142409.49588244</v>
+        <v>9.204379619698868</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.354813257898068e-06</v>
+        <v>0.0001157453629223405</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>9.204379619698868</v>
+        <v>8.113063865800347</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001157453629223405</v>
+        <v>1.606366617963322</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.113063865800347</v>
+        <v>0.007618568741558955</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.606366617963322</v>
+        <v>3.136718018738874</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.007618568741558955</v>
+        <v>0.9371915415724376</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.136718018738874</v>
+        <v>1.848330179602059</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9371915415724376</v>
+        <v>8</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.848330179602059</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2616419430199652</v>
       </c>
     </row>
@@ -5012,72 +4982,66 @@
         <v>1.893639785269571e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.06552446969340625</v>
+        <v>6.986401030391277e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.064976735173689</v>
+        <v>5.896704780533705e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.986401030391277e-07</v>
+        <v>-0.04745161583307057</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5.896704780533705e-06</v>
+        <v>0.1357966011995735</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.04745161583307057</v>
+        <v>0.02069251381958891</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1357966011995735</v>
+        <v>1.567432732028356</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02069251381958891</v>
+        <v>1.536641034069745</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.484543977332701</v>
+        <v>4.051365020192377</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.536641034069745</v>
+        <v>2.512902620819032e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.051365020192377</v>
+        <v>18993348.25741997</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.512902620819032e-14</v>
+        <v>5.388258423946625e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>18993348.25741997</v>
+        <v>9.06522780408984</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.388258423946625e-06</v>
+        <v>0.0001205358732387875</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>9.06522780408984</v>
+        <v>8.766252226289115</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001205358732387875</v>
+        <v>1.629709944877302</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.766252226289115</v>
+        <v>0.009262841717607672</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.629709944877302</v>
+        <v>3.146541285589485</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.009262841717607672</v>
+        <v>0.9399339124873093</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.146541285589485</v>
+        <v>1.863852349568592</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9399339124873093</v>
+        <v>8</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.863852349568592</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2766961995198165</v>
       </c>
     </row>
@@ -5092,72 +5056,66 @@
         <v>1.932800326687952e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.042777672834797</v>
+        <v>7.039499320162643e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.052399655984146</v>
+        <v>5.887604328746142e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.039499320162643e-07</v>
+        <v>-0.04784472627929224</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5.887604328746142e-06</v>
+        <v>0.1324085451993757</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.04784472627929224</v>
+        <v>0.0198207671694405</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1324085451993757</v>
+        <v>1.566491118609935</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0198207671694405</v>
+        <v>1.512759608871692</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.483531105644566</v>
+        <v>4.152676477641372</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.512759608871692</v>
+        <v>2.391785406072225e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.152676477641372</v>
+        <v>20453190.81171353</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.391785406072225e-14</v>
+        <v>5.04059234697755e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>20453190.81171353</v>
+        <v>10.00562798673154</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.04059234697755e-06</v>
+        <v>0.0001055631952411921</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>10.00562798673154</v>
+        <v>7.235901941594908</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001055631952411921</v>
+        <v>1.862418335393377</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.235901941594908</v>
+        <v>0.0055271070077714</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.862418335393377</v>
+        <v>3.382305442688589</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0055271070077714</v>
+        <v>0.9385814280637341</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.382305442688589</v>
+        <v>1.880840141730964</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9385814280637341</v>
+        <v>13</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.880840141730964</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2659545631806605</v>
       </c>
     </row>
@@ -5172,72 +5130,66 @@
         <v>1.965157995023369e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.01701077204452712</v>
+        <v>7.114825442341801e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.037422117895165</v>
+        <v>5.878065061774849e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>7.114825442341801e-07</v>
+        <v>-0.0504693333467964</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>5.878065061774849e-06</v>
+        <v>0.1271034480324963</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0504693333467964</v>
+        <v>0.01869850641646946</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1271034480324963</v>
+        <v>1.567763594222799</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01869850641646946</v>
+        <v>1.493456447541457</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.485305245407931</v>
+        <v>4.413487777860604</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.493456447541457</v>
+        <v>2.117456761900046e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.413487777860604</v>
+        <v>23155717.93255579</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.117456761900046e-14</v>
+        <v>4.45163199260524e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>23155717.93255579</v>
+        <v>11.35353366799489</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.45163199260524e-06</v>
+        <v>0.0001039593794837368</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>11.35353366799489</v>
+        <v>6.599172302795718</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001039593794837368</v>
+        <v>1.69323909282086</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>6.599172302795718</v>
+        <v>0.004527334822613941</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.69323909282086</v>
+        <v>3.352087581231323</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.004527334822613941</v>
+        <v>0.9390892893012736</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.352087581231323</v>
+        <v>1.870476944978887</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9390892893012736</v>
+        <v>16</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.870476944978887</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2611951491923324</v>
       </c>
     </row>
@@ -5252,72 +5204,66 @@
         <v>1.984121940919011e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.002302351642560685</v>
+        <v>7.182927715558998e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.017232396457893</v>
+        <v>5.867593222783038e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>7.182927715558998e-07</v>
+        <v>-0.05560297246889801</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>5.867593222783038e-06</v>
+        <v>0.1172170532897839</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.05560297246889801</v>
+        <v>0.01682632117641513</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1172170532897839</v>
+        <v>1.634460222055297</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01682632117641513</v>
+        <v>1.566856873940785</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.551885925557241</v>
+        <v>4.545036121776348</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.566856873940785</v>
+        <v>1.996658213843708e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.545036121776348</v>
+        <v>24071135.30248431</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.996658213843708e-14</v>
+        <v>4.447334640095222e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>24071135.30248431</v>
+        <v>11.56902813254263</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.447334640095222e-06</v>
+        <v>0.0001098956350820728</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>11.56902813254263</v>
+        <v>7.156753685591513</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001098956350820728</v>
+        <v>1.479126118565032</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.156753685591513</v>
+        <v>0.005628758085183849</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.479126118565032</v>
+        <v>3.208502030806442</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.005628758085183849</v>
+        <v>0.9445832422985999</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.208502030806442</v>
+        <v>1.848522609170465</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9445832422985999</v>
+        <v>19</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.848522609170465</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.244955458113781</v>
       </c>
     </row>
@@ -5332,72 +5278,66 @@
         <v>1.98388841888784e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.002914648478932877</v>
+        <v>7.191266145991604e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.017787427271231</v>
+        <v>5.856165271513228e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>7.191266145991604e-07</v>
+        <v>-0.05890923544418158</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>5.856165271513228e-06</v>
+        <v>0.1123919053917076</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.05890923544418158</v>
+        <v>0.01610160142149739</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1123919053917076</v>
+        <v>1.65349511282204</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01610160142149739</v>
+        <v>1.709405859189273</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.578164360189116</v>
+        <v>4.814136895576901</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.709405859189273</v>
+        <v>1.779678426111828e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.814136895576901</v>
+        <v>27215537.41838259</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.779678426111828e-14</v>
+        <v>3.973082045835758e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>27215537.41838259</v>
+        <v>13.18181963900319</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.973082045835758e-06</v>
+        <v>0.0001227839205955533</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>13.18181963900319</v>
+        <v>8.183181297856654</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001227839205955533</v>
+        <v>1.235100156397326</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.183181297856654</v>
+        <v>0.008222158467086916</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.235100156397326</v>
+        <v>3.068090620375115</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.008222158467086916</v>
+        <v>0.9468208572391369</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.068090620375115</v>
+        <v>1.843301057796632</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9468208572391369</v>
+        <v>19</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.843301057796632</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.221496789029949</v>
       </c>
     </row>
@@ -5412,72 +5352,66 @@
         <v>1.96705228100637e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.0126980663449011</v>
+        <v>7.191266145991604e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.061891314952885</v>
+        <v>5.844388134593651e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>7.191266145991604e-07</v>
+        <v>-0.06000954311409321</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>5.844388134593651e-06</v>
+        <v>0.1126455754217571</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.06000954311409321</v>
+        <v>0.01629053525945359</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1126455754217571</v>
+        <v>1.665455372234578</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01629053525945359</v>
+        <v>1.533187266549371</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.590851322931037</v>
+        <v>4.82660573442693</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.533187266549371</v>
+        <v>1.770495218817456e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.82660573442693</v>
+        <v>27472620.00534717</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.770495218817456e-14</v>
+        <v>3.954474538663781e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>27472620.00534717</v>
+        <v>13.36272148278094</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.954474538663781e-06</v>
+        <v>0.000136232742735257</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>13.36272148278094</v>
+        <v>10.13799951241473</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.000136232742735257</v>
+        <v>1.052739137097169</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.13799951241473</v>
+        <v>0.01400186971299281</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.052739137097169</v>
+        <v>2.808079493256072</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01400186971299281</v>
+        <v>0.949899356072162</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.808079493256072</v>
+        <v>1.777052380482965</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.949899356072162</v>
+        <v>17</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.777052380482965</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2362350949481804</v>
       </c>
     </row>
@@ -5492,72 +5426,66 @@
         <v>1.939901982105043e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.03737043703700168</v>
+        <v>7.097527780582936e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.145081893908329</v>
+        <v>5.832679985659074e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>7.097527780582936e-07</v>
+        <v>-0.05953704700372896</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>5.832679985659074e-06</v>
+        <v>0.1147495218505747</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.05953704700372896</v>
+        <v>0.01671195880151916</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1147495218505747</v>
+        <v>1.703847850843789</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01671195880151916</v>
+        <v>1.583570150426902</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.634676180670426</v>
+        <v>4.386647475846605</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.583570150426902</v>
+        <v>1.571038346619355e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.386647475846605</v>
+        <v>30715597.22438706</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.571038346619355e-14</v>
+        <v>3.587126762146866e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>30715597.22438706</v>
+        <v>14.82192849126562</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>3.587126762146866e-06</v>
+        <v>0.0001625612643752663</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>14.82192849126562</v>
+        <v>9.742297440824929</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001625612643752663</v>
+        <v>1.732827834495578</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.742297440824929</v>
+        <v>0.01542907315304965</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.732827834495578</v>
+        <v>3.069227126488947</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01542907315304965</v>
+        <v>0.9515515821675369</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.069227126488947</v>
+        <v>1.755512199536921</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9515515821675369</v>
+        <v>18</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.755512199536921</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2435722707696113</v>
       </c>
     </row>
@@ -5572,72 +5500,66 @@
         <v>1.908536373494093e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.06024429471997311</v>
+        <v>6.922096217425014e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.247192878445781</v>
+        <v>5.821355974818248e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>6.922096217425014e-07</v>
+        <v>-0.0580695523255299</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>5.821355974818248e-06</v>
+        <v>0.1174907365339956</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.0580695523255299</v>
+        <v>0.01717560439422818</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1174907365339956</v>
+        <v>1.761470473326989</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01717560439422818</v>
+        <v>1.520206649273064</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.690838460622854</v>
+        <v>5.714624062204342</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.520206649273064</v>
+        <v>9.086696908060475e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>5.714624062204342</v>
+        <v>49953001.73098975</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>9.086696908060475e-15</v>
+        <v>2.319228407685474e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>49953001.73098975</v>
+        <v>22.6740564386162</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.319228407685474e-06</v>
+        <v>0.0001414390613415151</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>22.6740564386162</v>
+        <v>7.923546155093524</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001414390613415151</v>
+        <v>2.515215127217134</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.923546155093524</v>
+        <v>0.008879909703148298</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>2.515215127217134</v>
+        <v>3.388726917017592</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.008879909703148298</v>
+        <v>0.9555365357593825</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.388726917017592</v>
+        <v>1.733491145642696</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9555365357593825</v>
+        <v>18</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.733491145642696</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.3189417247467001</v>
       </c>
     </row>
@@ -5652,72 +5574,66 @@
         <v>1.875948467907761e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.07494129739831637</v>
+        <v>6.578779646874259e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.353511420725513</v>
+        <v>5.81058188757184e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>6.578779646874259e-07</v>
+        <v>-0.05555738039596617</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>5.81058188757184e-06</v>
+        <v>0.1188515787854664</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05555738039596617</v>
+        <v>0.01720861861011205</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1188515787854664</v>
+        <v>1.792453392777392</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01720861861011205</v>
+        <v>1.774745443197459</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.731744732668639</v>
+        <v>4.370957243340806</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.774745443197459</v>
+        <v>3.779441324567166e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.370957243340806</v>
+        <v>119495866.5423714</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.779441324567166e-15</v>
+        <v>9.758543521860945e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>119495866.5423714</v>
+        <v>53.96763334334641</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>9.758543521860945e-07</v>
+        <v>9.663733677624688e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>53.96763334334641</v>
+        <v>6.346248775116013</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>9.663733677624688e-05</v>
+        <v>1.788813492789311</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>6.346248775116013</v>
+        <v>0.003892056515553727</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.788813492789311</v>
+        <v>3.533708642001062</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.003892056515553727</v>
+        <v>0.9590067182279134</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.533708642001062</v>
+        <v>1.680043073776455</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9590067182279134</v>
+        <v>18</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.680043073776455</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.4101894288765258</v>
       </c>
     </row>
@@ -5732,72 +5648,66 @@
         <v>1.851267369478792e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.06648783372532757</v>
+        <v>6.068159526803641e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.425854225267786</v>
+        <v>5.800570272748919e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>6.068159526803641e-07</v>
+        <v>-0.05182015536239817</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>5.800570272748919e-06</v>
+        <v>0.1171405517190529</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05182015536239817</v>
+        <v>0.01640262447968198</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1171405517190529</v>
+        <v>1.779940533634969</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01640262447968198</v>
+        <v>2.035338281206824</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.713858574620939</v>
+        <v>4.534673175380474</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.035338281206824</v>
+        <v>3.40678058692923e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.534673175380474</v>
+        <v>127862390.6695592</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.40678058692923e-15</v>
+        <v>9.081582394088398e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>127862390.6695592</v>
+        <v>55.69674362050781</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>9.081582394088398e-07</v>
+        <v>8.30374570376606e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>55.69674362050781</v>
+        <v>5.801332100591833</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>8.30374570376606e-05</v>
+        <v>1.642485992985755</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>5.801332100591833</v>
+        <v>0.002794663327345909</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.642485992985755</v>
+        <v>3.537856407111302</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.002794663327345909</v>
+        <v>0.9584599047420514</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.537856407111302</v>
+        <v>1.662671370529169</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9584599047420514</v>
+        <v>18</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.662671370529169</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.4090815207513548</v>
       </c>
     </row>
@@ -5812,72 +5722,66 @@
         <v>1.835863671147439e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.0338216265000589</v>
+        <v>5.60447090265046e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.460165931882592</v>
+        <v>5.791405552294374e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5.60447090265046e-07</v>
+        <v>-0.04760657666261368</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>5.791405552294374e-06</v>
+        <v>0.1156002457254678</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.04760657666261368</v>
+        <v>0.01562673100314986</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1156002457254678</v>
+        <v>1.779231393604482</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01562673100314986</v>
+        <v>1.876655905312909</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.712003251806336</v>
+        <v>4.463121668875616</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.876655905312909</v>
+        <v>3.80612044951687e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.463121668875616</v>
+        <v>114752030.8250681</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>3.80612044951687e-15</v>
+        <v>1.010720676165972e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>114752030.8250681</v>
+        <v>50.11910285236536</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.010720676165972e-06</v>
+        <v>8.457726192540961e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>50.11910285236536</v>
+        <v>7.046701492119957</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>8.457726192540961e-05</v>
+        <v>1.920270920851603</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.046701492119957</v>
+        <v>0.004199768680475764</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.920270920851603</v>
+        <v>3.433565120928997</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.004199768680475764</v>
+        <v>0.9573172325410886</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.433565120928997</v>
+        <v>1.693434727025839</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9573172325410886</v>
+        <v>18</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.693434727025839</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.397124668754935</v>
       </c>
     </row>
@@ -5892,72 +5796,66 @@
         <v>1.824538337305632e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.01517410235933884</v>
+        <v>5.394814588478732e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.470695448537242</v>
+        <v>5.78309375219648e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>5.394814588478732e-07</v>
+        <v>-0.04317361422809483</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>5.78309375219648e-06</v>
+        <v>0.1164039864641135</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.04317361422809483</v>
+        <v>0.01541129790351528</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1164039864641135</v>
+        <v>1.782766720834934</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01541129790351528</v>
+        <v>1.994226378905623</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.716964001286582</v>
+        <v>4.713729045851352</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.994226378905623</v>
+        <v>4.798572074260375e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.713729045851352</v>
+        <v>92503037.3487705</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>4.798572074260375e-15</v>
+        <v>1.256675471570111e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>92503037.3487705</v>
+        <v>41.06047871800263</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.256675471570111e-06</v>
+        <v>8.28616865081579e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>41.06047871800263</v>
+        <v>5.923409488059216</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>8.28616865081579e-05</v>
+        <v>1.901614044701922</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>5.923409488059216</v>
+        <v>0.002907349761893875</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.901614044701922</v>
+        <v>3.54374253712451</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.002907349761893875</v>
+        <v>0.9569222054495653</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.54374253712451</v>
+        <v>1.673035260745835</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9569222054495653</v>
+        <v>18</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.673035260745835</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.3599875015833932</v>
       </c>
     </row>
@@ -5972,72 +5870,66 @@
         <v>1.811783141596095e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.07360287706963781</v>
+        <v>5.394814588478732e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.463264557147828</v>
+        <v>5.775686341020132e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>5.394814588478732e-07</v>
+        <v>-0.03820487949824385</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>5.775686341020132e-06</v>
+        <v>0.1199637505015808</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.03820487949824385</v>
+        <v>0.01584779383851765</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1199637505015808</v>
+        <v>1.727483296907498</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01584779383851765</v>
+        <v>1.939804307494455</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.652618545056416</v>
+        <v>4.456315255667279</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.939804307494455</v>
+        <v>5.568842612437394e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.456315255667279</v>
+        <v>81246417.59140348</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>5.568842612437394e-15</v>
+        <v>1.404926901877997e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>81246417.59140348</v>
+        <v>36.75982077631961</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.404926901877997e-06</v>
+        <v>8.711091317209131e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>36.75982077631961</v>
+        <v>5.456159815387625</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>8.711091317209131e-05</v>
+        <v>1.493180388570954</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>5.456159815387625</v>
+        <v>0.002593264003634709</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.493180388570954</v>
+        <v>3.51706088603505</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.002593264003634709</v>
+        <v>0.9551597407656598</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.51706088603505</v>
+        <v>1.686201347098817</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9551597407656598</v>
+        <v>19</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.686201347098817</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.3143005020685336</v>
       </c>
     </row>
@@ -6052,72 +5944,66 @@
         <v>1.796666876710787e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.1362516989810738</v>
+        <v>5.394814588478732e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.437213558775515</v>
+        <v>5.769194087293977e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>5.394814588478732e-07</v>
+        <v>-0.03401120389725767</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>5.769194087293977e-06</v>
+        <v>0.1228434670028029</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.03401120389725767</v>
+        <v>0.01624584587920362</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1228434670028029</v>
+        <v>1.724028576699163</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01624584587920362</v>
+        <v>1.875456022473308</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.643556193422631</v>
+        <v>4.000771466259945</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.875456022473308</v>
+        <v>7.005209821706576e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.000771466259945</v>
+        <v>65987534.53577232</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>7.005209821706576e-15</v>
+        <v>1.731345246153704e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>65987534.53577232</v>
+        <v>30.50316841047591</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.731345246153704e-06</v>
+        <v>0.000101081540392225</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>30.50316841047591</v>
+        <v>6.949932888224321</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.000101081540392225</v>
+        <v>1.495971357806269</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>6.949932888224321</v>
+        <v>0.004882396810963589</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.495971357806269</v>
+        <v>3.251133165959465</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.004882396810963589</v>
+        <v>0.9568088819108472</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.251133165959465</v>
+        <v>1.781565439680753</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9568088819108472</v>
+        <v>19</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.781565439680753</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.3093800075059902</v>
       </c>
     </row>
@@ -6132,72 +6018,66 @@
         <v>1.780172903847241e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.1995653695298427</v>
+        <v>5.394814588478732e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.395025347733957</v>
+        <v>5.763385383060835e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>5.394814588478732e-07</v>
+        <v>-0.03089890784097101</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>5.763385383060835e-06</v>
+        <v>0.1254614224912016</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.03089890784097101</v>
+        <v>0.01669361195832226</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1254614224912016</v>
+        <v>1.692636532270284</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.01669361195832226</v>
+        <v>1.83680646503083</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.604095185953907</v>
+        <v>3.98945009486194</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.83680646503083</v>
+        <v>7.045025391403515e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.98945009486194</v>
+        <v>65386282.04670876</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>7.045025391403515e-15</v>
+        <v>1.733942703652749e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>65386282.04670876</v>
+        <v>30.1200611813776</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.733942703652749e-06</v>
+        <v>0.0001051632014256549</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>30.1200611813776</v>
+        <v>7.77760319932254</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001051632014256549</v>
+        <v>1.596765781885257</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>7.77760319932254</v>
+        <v>0.006361438945882296</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.596765781885257</v>
+        <v>3.269828824969807</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.006361438945882296</v>
+        <v>0.9554635012619823</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.269828824969807</v>
+        <v>1.783169009886518</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9554635012619823</v>
+        <v>22</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.783169009886518</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.2873033872482871</v>
       </c>
     </row>
@@ -6212,72 +6092,66 @@
         <v>1.762611541904782e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.2608583607750544</v>
+        <v>5.394814588478732e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.338155269447703</v>
+        <v>5.758291636419365e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>5.394814588478732e-07</v>
+        <v>-0.02616915622045421</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>5.758291636419365e-06</v>
+        <v>0.1290389141212625</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.02616915622045421</v>
+        <v>0.01733125678479569</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1290389141212625</v>
+        <v>1.695602597435977</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.01733125678479569</v>
+        <v>1.90179312189386</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.6075406278238</v>
+        <v>3.860157700628294</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.90179312189386</v>
+        <v>7.524862027096933e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.860157700628294</v>
+        <v>61604634.65520097</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>7.524862027096933e-15</v>
+        <v>1.839085619819456e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>61604634.65520097</v>
+        <v>28.55783723253783</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.839085619819456e-06</v>
+        <v>9.927020254999628e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>28.55783723253783</v>
+        <v>7.783213859220757</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>9.927020254999628e-05</v>
+        <v>1.758191699994229</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>7.783213859220757</v>
+        <v>0.006013631822870736</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.758191699994229</v>
+        <v>3.302242213172458</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.006013631822870736</v>
+        <v>0.9548942605815696</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.302242213172458</v>
+        <v>1.746209962523285</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9548942605815696</v>
+        <v>22</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.746209962523285</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2986994848289726</v>
       </c>
     </row>
@@ -6292,72 +6166,66 @@
         <v>1.746284246058787e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.3148581040598038</v>
+        <v>5.394814588478732e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.272815250612346</v>
+        <v>5.754297177912605e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>5.394814588478732e-07</v>
+        <v>-0.01894193028899679</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>5.754297177912605e-06</v>
+        <v>0.1344063937362562</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.01894193028899679</v>
+        <v>0.01841463435062577</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1344063937362562</v>
+        <v>1.690885692075276</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01841463435062577</v>
+        <v>1.790083202793955</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.602364910755018</v>
+        <v>3.890518569627908</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.790083202793955</v>
+        <v>9.264409619896935e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.890518569627908</v>
+        <v>48965658.27737932</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>9.264409619896935e-15</v>
+        <v>2.309434242689862e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>48965658.27737932</v>
+        <v>22.21267915642001</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.309434242689862e-06</v>
+        <v>9.334670274601573e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>22.21267915642001</v>
+        <v>6.336932463239594</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>9.334670274601573e-05</v>
+        <v>1.812606797767357</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>6.336932463239594</v>
+        <v>0.003748496755743567</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.812606797767357</v>
+        <v>3.394315746875034</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.003748496755743567</v>
+        <v>0.9545782199763012</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.394315746875034</v>
+        <v>1.763406901307339</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9545782199763012</v>
+        <v>17</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.763406901307339</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.3072343854999152</v>
       </c>
     </row>
@@ -6372,72 +6240,66 @@
         <v>1.733467103634321e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.3512839834066177</v>
+        <v>5.394814588478732e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.215533222352842</v>
+        <v>5.751778478687522e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>5.394814588478732e-07</v>
+        <v>-0.009724815513636732</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>5.751778478687522e-06</v>
+        <v>0.1447565343230223</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.009724815513636732</v>
+        <v>0.02103467823048675</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1447565343230223</v>
+        <v>1.647278106941418</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.02103467823048675</v>
+        <v>1.792178252922244</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.566054534577836</v>
+        <v>3.945702174895</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.792178252922244</v>
+        <v>1.087052829188947e-14</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.945702174895</v>
+        <v>43182386.29096642</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.087052829188947e-14</v>
+        <v>2.528343679593404e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>43182386.29096642</v>
+        <v>20.27047505610518</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>2.528343679593404e-06</v>
+        <v>9.514072848923529e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>20.27047505610518</v>
+        <v>6.061836979718959</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>9.514072848923529e-05</v>
+        <v>1.535171679718152</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>6.061836979718959</v>
+        <v>0.003496028609453967</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.535171679718152</v>
+        <v>3.387876405619585</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.003496028609453967</v>
+        <v>0.9511517414963921</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.387876405619585</v>
+        <v>1.724559338049812</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9511517414963921</v>
+        <v>15</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.724559338049812</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2794774835641443</v>
       </c>
     </row>
@@ -6452,72 +6314,66 @@
         <v>1.727306312823613e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.3640395349775134</v>
+        <v>5.394814588478732e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.188998505642373</v>
+        <v>5.75083950677276e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>5.394814588478732e-07</v>
+        <v>-0.001723369273289603</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>5.75083950677276e-06</v>
+        <v>0.1538304117206427</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.001723369273289603</v>
+        <v>0.02366036936065528</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1538304117206427</v>
+        <v>1.602654030135371</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.02366036936065528</v>
+        <v>1.600206688422499</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.513428564681498</v>
+        <v>4.694587488373655</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.600206688422499</v>
+        <v>1.730758930697522e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.694587488373655</v>
+        <v>27826147.37896912</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.730758930697522e-14</v>
+        <v>3.840969214811609e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>27826147.37896912</v>
+        <v>13.40117082712313</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>3.840969214811609e-06</v>
+        <v>0.0001162358917770613</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>13.40117082712313</v>
+        <v>8.195747750001846</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001162358917770613</v>
+        <v>1.657578389527753</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.195747750001846</v>
+        <v>0.007807597534066249</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.657578389527753</v>
+        <v>3.089086673625451</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.007807597534066249</v>
+        <v>0.9493098078164601</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.089086673625451</v>
+        <v>1.833351621260296</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9493098078164601</v>
+        <v>11</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.833351621260296</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.2676651622238512</v>
       </c>
     </row>
@@ -6532,72 +6388,66 @@
         <v>1.727922751058721e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.3633955653262038</v>
+        <v>5.394814588478732e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.191053980841856</v>
+        <v>5.750906271725506e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5.394814588478732e-07</v>
+        <v>0.00178047245004011</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>5.750906271725506e-06</v>
+        <v>0.1563301343087374</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.00178047245004011</v>
+        <v>0.02444095584830591</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1563301343087374</v>
+        <v>1.571678784156791</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.02444095584830591</v>
+        <v>1.550497879037924</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.479354591451027</v>
+        <v>4.136517389580364</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.550497879037924</v>
+        <v>2.429380128192072e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.136517389580364</v>
+        <v>19101887.14450378</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2.429380128192072e-14</v>
+        <v>5.502961821069064e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>19101887.14450378</v>
+        <v>8.864373046073553</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>5.502961821069064e-06</v>
+        <v>0.0001334786196424069</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>8.864373046073553</v>
+        <v>9.255246953845994</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001334786196424069</v>
+        <v>1.585103084442546</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.255246953845994</v>
+        <v>0.01143372465678865</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.585103084442546</v>
+        <v>3.074774071635435</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01143372465678865</v>
+        <v>0.9477569114376456</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.074774071635435</v>
+        <v>1.832883155512202</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9477569114376456</v>
+        <v>11</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.832883155512202</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.2331055645888396</v>
       </c>
     </row>
@@ -6612,72 +6462,66 @@
         <v>1.730898604775167e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.3604350764229264</v>
+        <v>5.394814588478732e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.20065324429719</v>
+        <v>5.751235656466357e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>5.394814588478732e-07</v>
+        <v>0.001498450594081769</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>5.751235656466357e-06</v>
+        <v>0.1559937710965768</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.001498450594081769</v>
+        <v>0.02433549164227543</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1559937710965768</v>
+        <v>1.584699715644591</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.02433549164227543</v>
+        <v>1.702469660214468</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.495368512094411</v>
+        <v>3.877617540920746</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.702469660214468</v>
+        <v>2.764618697740144e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.877617540920746</v>
+        <v>17052658.27269119</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>2.764618697740144e-14</v>
+        <v>6.189922249434599e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>17052658.27269119</v>
+        <v>8.039321911798982</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>6.189922249434599e-06</v>
+        <v>0.0001297898348382755</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>8.039321911798982</v>
+        <v>8.6900969249845</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001297898348382755</v>
+        <v>1.469516051975836</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>8.6900969249845</v>
+        <v>0.00980144078612495</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.469516051975836</v>
+        <v>3.127431840641072</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.00980144078612495</v>
+        <v>0.9471322687775704</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.127431840641072</v>
+        <v>1.848378367982147</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9471322687775704</v>
+        <v>10</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.848378367982147</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.2109085054544772</v>
       </c>
     </row>
@@ -6692,72 +6536,66 @@
         <v>1.731559318871796e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.3598632794909887</v>
+        <v>5.394814588478732e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.202661004106855</v>
+        <v>5.75130517617789e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>5.394814588478732e-07</v>
+        <v>-0.0007558138896136581</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>5.75130517617789e-06</v>
+        <v>0.1550943792424091</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.0007558138896136581</v>
+        <v>0.0240536584169941</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1550943792424091</v>
+        <v>1.571211334896553</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.0240536584169941</v>
+        <v>1.590727494992566</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.478321138228126</v>
+        <v>3.868602020374433</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.590727494992566</v>
+        <v>2.777519233365703e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.868602020374433</v>
+        <v>17005834.67341797</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>2.777519233365703e-14</v>
+        <v>6.165000321528004e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>17005834.67341797</v>
+        <v>8.032541541986447</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>6.165000321528004e-06</v>
+        <v>0.0001229418076071228</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>8.032541541986447</v>
+        <v>8.624343748005781</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001229418076071228</v>
+        <v>1.358320601312874</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>8.624343748005781</v>
+        <v>0.009144326215559898</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.358320601312874</v>
+        <v>3.099670111051923</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.009144326215559898</v>
+        <v>0.9469528222520937</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.099670111051923</v>
+        <v>1.845041556160788</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9469528222520937</v>
+        <v>12</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.845041556160788</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.2145363690280437</v>
       </c>
     </row>
@@ -6772,72 +6610,66 @@
         <v>1.728319638076703e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.3615234303036568</v>
+        <v>5.394814588478732e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.194564658653038</v>
+        <v>5.750989741834211e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>5.394814588478732e-07</v>
+        <v>-0.002634181424943584</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>5.750989741834211e-06</v>
+        <v>0.1545106081120005</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.002634181424943584</v>
+        <v>0.02387980756641865</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1545106081120005</v>
+        <v>1.589529042914232</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.02387980756641865</v>
+        <v>1.695109315511232</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.50387204460338</v>
+        <v>3.857740175071997</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.695109315511232</v>
+        <v>2.793182007285817e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.857740175071997</v>
+        <v>17418866.50145351</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>2.793182007285817e-14</v>
+        <v>6.093662007208748e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>17418866.50145351</v>
+        <v>8.474986542642135</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>6.093662007208748e-06</v>
+        <v>0.0001243289512172763</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>8.474986542642135</v>
+        <v>8.74853224138387</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001243289512172763</v>
+        <v>1.339106127040256</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>8.74853224138387</v>
+        <v>0.00951574210985227</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.339106127040256</v>
+        <v>3.014882278701943</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.00951574210985227</v>
+        <v>0.9476297678449178</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.014882278701943</v>
+        <v>1.815648211784087</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9476297678449178</v>
+        <v>11</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.815648211784087</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.2157659193434041</v>
       </c>
     </row>
@@ -6852,72 +6684,66 @@
         <v>1.72258134468212e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.3634157067958351</v>
+        <v>5.394814588478732e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.181910115507982</v>
+        <v>5.750461950941461e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>5.394814588478732e-07</v>
+        <v>-0.003627361362993637</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>5.750461950941461e-06</v>
+        <v>0.1548623261968553</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.003627361362993637</v>
+        <v>0.02399512000779559</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1548623261968553</v>
+        <v>1.562477239714246</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.02399512000779559</v>
+        <v>1.694592637375404</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.474679218369312</v>
+        <v>3.744298630521131</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.694592637375404</v>
+        <v>2.964996775601457e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.744298630521131</v>
+        <v>16870265.75445922</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>2.964996775601457e-14</v>
+        <v>6.259772920173523e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>16870265.75445922</v>
+        <v>8.438554768635845</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>6.259772920173523e-06</v>
+        <v>0.0001311420431278522</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>8.438554768635845</v>
+        <v>8.784629939520634</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001311420431278522</v>
+        <v>1.401258055198313</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>8.784629939520634</v>
+        <v>0.01012019516469139</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.401258055198313</v>
+        <v>3.027404076380985</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01012019516469139</v>
+        <v>0.943565041357755</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.027404076380985</v>
+        <v>1.851508536778899</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.943565041357755</v>
+        <v>12</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.851508536778899</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.2094061253990365</v>
       </c>
     </row>
@@ -6932,72 +6758,66 @@
         <v>1.713262714344899e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.3663804545749291</v>
+        <v>5.394814588478732e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.161352113771947</v>
+        <v>5.749608616360755e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>5.394814588478732e-07</v>
+        <v>-0.006742474366462085</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>5.749608616360755e-06</v>
+        <v>0.1560948054987697</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.006742474366462085</v>
+        <v>0.02440883409770934</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1560948054987697</v>
+        <v>1.555125539519116</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.02440883409770934</v>
+        <v>1.605557077638539</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.467182911090773</v>
+        <v>3.666640410518883</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.605557077638539</v>
+        <v>3.091922092732504e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.666640410518883</v>
+        <v>16267804.89633856</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>3.091922092732504e-14</v>
+        <v>6.467565762728762e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>16267804.89633856</v>
+        <v>8.182508267471086</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>6.467565762728762e-06</v>
+        <v>0.0001391484194144088</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>8.182508267471086</v>
+        <v>8.865686026927934</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001391484194144088</v>
+        <v>1.516563198122392</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>8.865686026927934</v>
+        <v>0.01093711985686839</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.516563198122392</v>
+        <v>3.040983685615721</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01093711985686839</v>
+        <v>0.9432194129513015</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.040983685615721</v>
+        <v>1.864920734580847</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9432194129513015</v>
+        <v>9</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.864920734580847</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.2052964883041665</v>
       </c>
     </row>
@@ -7012,72 +6832,66 @@
         <v>1.696286738707244e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.3713619404898163</v>
+        <v>5.394814588478732e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.124668689471642</v>
+        <v>5.748055159121154e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>5.394814588478732e-07</v>
+        <v>-0.01144418273533052</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>5.748055159121154e-06</v>
+        <v>0.1574362637429706</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.01144418273533052</v>
+        <v>0.02491530585500653</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1574362637429706</v>
+        <v>1.539778326592723</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.02491530585500653</v>
+        <v>1.5591092928341</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.450064210617625</v>
+        <v>3.700236400405133</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.5591092928341</v>
+        <v>3.036031276813759e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.700236400405133</v>
+        <v>16532176.9213416</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>3.036031276813759e-14</v>
+        <v>6.330577833650589e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>16532176.9213416</v>
+        <v>8.297864330867769</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>6.330577833650589e-06</v>
+        <v>0.0001322600401631142</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>8.297864330867769</v>
+        <v>8.265915629462301</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001322600401631142</v>
+        <v>1.529086020446816</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>8.265915629462301</v>
+        <v>0.009036715015596932</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.529086020446816</v>
+        <v>3.134058069130512</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.009036715015596932</v>
+        <v>0.9421116193415587</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.134058069130512</v>
+        <v>1.8464999170189</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9421116193415587</v>
+        <v>12</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.8464999170189</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.2036037348530912</v>
       </c>
     </row>
@@ -7092,72 +6906,66 @@
         <v>1.671689610762729e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.3757965558593988</v>
+        <v>5.394814588478732e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.076442821047501</v>
+        <v>5.745857842257798e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>5.394814588478732e-07</v>
+        <v>-0.01420008099703011</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>5.745857842257798e-06</v>
+        <v>0.1594936280892184</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.01420008099703011</v>
+        <v>0.02563964894642877</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1594936280892184</v>
+        <v>1.538011152553602</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.02563964894642877</v>
+        <v>1.52995237458297</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.446357739088644</v>
+        <v>3.689112938262149</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.52995237458297</v>
+        <v>3.054367442277601e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.689112938262149</v>
+        <v>16309390.20056527</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>3.054367442277601e-14</v>
+        <v>6.405771756069921e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>16309390.20056527</v>
+        <v>8.124501596662189</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>6.405771756069921e-06</v>
+        <v>0.0001185184869889787</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>8.124501596662189</v>
+        <v>8.035180857137576</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001185184869889787</v>
+        <v>1.334405096596235</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>8.035180857137576</v>
+        <v>0.007652043168104588</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.334405096596235</v>
+        <v>3.161142104926887</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.007652043168104588</v>
+        <v>0.9428010107314065</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.161142104926887</v>
+        <v>1.856272741799786</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9428010107314065</v>
+        <v>12</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.856272741799786</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.2169045618664623</v>
       </c>
     </row>
@@ -7172,72 +6980,66 @@
         <v>1.642825596021686e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.3757926599555284</v>
+        <v>5.394814588478732e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.028022132566085</v>
+        <v>5.743394501803957e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>5.394814588478732e-07</v>
+        <v>-0.01562357305476361</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>5.743394501803957e-06</v>
+        <v>0.1618782083530553</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.01562357305476361</v>
+        <v>0.02644788955095106</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1618782083530553</v>
+        <v>1.537790754282598</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.02644788955095106</v>
+        <v>1.665741708467527</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.447924199677933</v>
+        <v>3.710217583615218</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.665741708467527</v>
+        <v>3.019718258458201e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.710217583615218</v>
+        <v>16481412.37180942</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>3.019718258458201e-14</v>
+        <v>6.333674976188862e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>16481412.37180942</v>
+        <v>8.202670689701261</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>6.333674976188862e-06</v>
+        <v>0.0001157208201747269</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>8.202670689701261</v>
+        <v>8.108690901053409</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001157208201747269</v>
+        <v>1.265905736410144</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>8.108690901053409</v>
+        <v>0.007608744387068099</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.265905736410144</v>
+        <v>3.084204560640393</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.007608744387068099</v>
+        <v>0.9426544745036064</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.084204560640393</v>
+        <v>1.853456523661374</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9426544745036064</v>
+        <v>12</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.853456523661374</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2253489873964456</v>
       </c>
     </row>
@@ -7252,72 +7054,66 @@
         <v>1.608233537921166e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.3656399002353636</v>
+        <v>5.394814588478732e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-0.9899426140295313</v>
+        <v>5.740640941444939e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>5.394814588478732e-07</v>
+        <v>-0.01833026607859382</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>5.740640941444939e-06</v>
+        <v>0.1646327841078034</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.01833026607859382</v>
+        <v>0.0274393752813185</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1646327841078034</v>
+        <v>1.532895036027634</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.0274393752813185</v>
+        <v>1.713490029655905</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.442516488234221</v>
+        <v>3.716911669317736</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.713490029655905</v>
+        <v>3.008851145178113e-14</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>3.716911669317736</v>
+        <v>16525445.83548976</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>3.008851145178113e-14</v>
+        <v>6.29960460720929e-06</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>16525445.83548976</v>
+        <v>8.216882426087672</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>6.29960460720929e-06</v>
+        <v>0.0001203383302085815</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>8.216882426087672</v>
+        <v>7.954966101997747</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001203383302085815</v>
+        <v>1.358670946457206</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>7.954966101997747</v>
+        <v>0.007615188320322782</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.358670946457206</v>
+        <v>3.123223561428711</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.007615188320322782</v>
+        <v>0.9409704256274919</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>3.123223561428711</v>
+        <v>1.864946370170322</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9409704256274919</v>
+        <v>12</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.864946370170322</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.218187822670817</v>
       </c>
     </row>
@@ -7332,72 +7128,66 @@
         <v>1.567606645734723e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.3435186458469915</v>
+        <v>5.394814588478732e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-0.9676359115228719</v>
+        <v>5.737554628431114e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>5.394814588478732e-07</v>
+        <v>-0.02020511309030876</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>5.737554628431114e-06</v>
+        <v>0.1687606391717149</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.02020511309030876</v>
+        <v>0.02888842795884246</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1687606391717149</v>
+        <v>1.539635354457648</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.02888842795884246</v>
+        <v>1.56635734613325</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.447718045239952</v>
+        <v>3.706361207542976</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.56635734613325</v>
+        <v>3.026005410108011e-14</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3.706361207542976</v>
+        <v>16431365.05777364</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>3.026005410108011e-14</v>
+        <v>6.356949282806853e-06</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>16431365.05777364</v>
+        <v>8.169904673584323</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>6.356949282806853e-06</v>
+        <v>0.0001326380323173086</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>8.169904673584323</v>
+        <v>8.410155143631588</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001326380323173086</v>
+        <v>1.476003871550116</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>8.410155143631588</v>
+        <v>0.009381582137786438</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.476003871550116</v>
+        <v>3.040973768428125</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.009381582137786438</v>
+        <v>0.9404576554680039</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.040973768428125</v>
+        <v>1.852117384737424</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9404576554680039</v>
+        <v>10</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.852117384737424</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.2135250206211726</v>
       </c>
     </row>
@@ -7412,72 +7202,66 @@
         <v>1.524527293524503e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.3099746410757768</v>
+        <v>5.394814588478732e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-0.9644615435915762</v>
+        <v>5.73440569582939e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>5.394814588478732e-07</v>
+        <v>-0.02047227932521556</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>5.73440569582939e-06</v>
+        <v>0.1735866539186301</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.02047227932521556</v>
+        <v>0.03055143867453025</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1735866539186301</v>
+        <v>1.511264657215284</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.03055143867453025</v>
+        <v>1.5613179220415</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.422514168321171</v>
+        <v>3.730208397685794</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.5613179220415</v>
+        <v>2.987438630951555e-14</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3.730208397685794</v>
+        <v>17413702.21660515</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>2.987438630951555e-14</v>
+        <v>5.944701159760642e-06</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>17413702.21660515</v>
+        <v>9.059020024870193</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>5.944701159760642e-06</v>
+        <v>0.0001344212520706323</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>9.059020024870193</v>
+        <v>8.557820010858791</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001344212520706323</v>
+        <v>1.59537784822005</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>8.557820010858791</v>
+        <v>0.009844512903327841</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.59537784822005</v>
+        <v>3.063328966971809</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.009844512903327841</v>
+        <v>0.9385687492862907</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.063328966971809</v>
+        <v>1.85931991249965</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9385687492862907</v>
+        <v>13</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.85931991249965</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.2275819403694414</v>
       </c>
     </row>
@@ -7492,72 +7276,66 @@
         <v>1.47779015088124e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.2570987102692571</v>
+        <v>5.394814588478732e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.000911215511516</v>
+        <v>5.73117164532567e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>5.394814588478732e-07</v>
+        <v>-0.02329513125960254</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>5.73117164532567e-06</v>
+        <v>0.1786777007628599</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.02329513125960254</v>
+        <v>0.03246689014672237</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1786777007628599</v>
+        <v>1.49581861344657</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.03246689014672237</v>
+        <v>1.510739234145763</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.404514597405014</v>
+        <v>3.876707641422716</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.510739234145763</v>
+        <v>2.765916613707323e-14</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.876707641422716</v>
+        <v>18720663.0345345</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>2.765916613707323e-14</v>
+        <v>5.494910043339316e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>18720663.0345345</v>
+        <v>9.693520550068468</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>5.494910043339316e-06</v>
+        <v>0.000119497563815312</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>9.693520550068468</v>
+        <v>8.018057184422696</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.000119497563815312</v>
+        <v>1.716484411376088</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>8.018057184422696</v>
+        <v>0.007682407680549798</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.716484411376088</v>
+        <v>3.228700354531699</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.007682407680549798</v>
+        <v>0.9376436177865738</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.228700354531699</v>
+        <v>1.874800191415073</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9376436177865738</v>
+        <v>13</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.874800191415073</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.2647144789669519</v>
       </c>
     </row>
@@ -7572,72 +7350,66 @@
         <v>1.42301026459284e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.1723679563715521</v>
+        <v>5.341991808626021e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.112364152335775</v>
+        <v>5.727526333485564e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>5.341991808626021e-07</v>
+        <v>-0.02630329539429493</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>5.727526333485564e-06</v>
+        <v>0.1857609764406281</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.02630329539429493</v>
+        <v>0.03519672679879576</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1857609764406281</v>
+        <v>1.529449370033565</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.03519672679879576</v>
+        <v>1.715930932080019</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.433192975699386</v>
+        <v>3.691675316242991</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.715930932080019</v>
+        <v>2.307462497861531e-14</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>3.691675316242991</v>
+        <v>22384913.57823277</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>2.307462497861531e-14</v>
+        <v>4.738114882167288e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>22384913.57823277</v>
+        <v>11.56233359515771</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>4.738114882167288e-06</v>
+        <v>0.0001267785523202048</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>11.56233359515771</v>
+        <v>9.063099981881466</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001267785523202048</v>
+        <v>1.668424220623699</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>9.063099981881466</v>
+        <v>0.01041356255877695</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.668424220623699</v>
+        <v>3.179735248080864</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.01041356255877695</v>
+        <v>0.9415934310437003</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.179735248080864</v>
+        <v>1.847864974324436</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9415934310437003</v>
+        <v>15</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.847864974324436</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.3018808165365428</v>
       </c>
     </row>
@@ -7652,72 +7424,66 @@
         <v>1.370255163213488e-07</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.08322914529384681</v>
+        <v>4.996012109645497e-07</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-1.237600277432103</v>
+        <v>5.723917289273991e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>4.996012109645497e-07</v>
+        <v>-0.02482870901518636</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>5.723917289273991e-06</v>
+        <v>0.1908521072688082</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>-0.02482870901518636</v>
+        <v>0.03703374912114641</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.1908521072688082</v>
+        <v>1.540431467951984</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.03703374912114641</v>
+        <v>1.550390359897987</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.442770887979857</v>
+        <v>3.877917244617885</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1.550390359897987</v>
+        <v>2.091147046975703e-14</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>3.877917244617885</v>
+        <v>24659257.54527347</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>2.091147046975703e-14</v>
+        <v>4.356771630678324e-06</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>24659257.54527347</v>
+        <v>12.71582568967901</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>4.356771630678324e-06</v>
+        <v>0.0001260130783484443</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>12.71582568967901</v>
+        <v>8.617858345216117</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001260130783484443</v>
+        <v>1.617307534299514</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>8.617858345216117</v>
+        <v>0.009358674085748264</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.617307534299514</v>
+        <v>3.115412633946253</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.009358674085748264</v>
+        <v>0.9421242203891125</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>3.115412633946253</v>
+        <v>1.815188068700475</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9421242203891125</v>
+        <v>18</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.815188068700475</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.3124306018226085</v>
       </c>
     </row>
@@ -7732,72 +7498,66 @@
         <v>1.328212077240939e-07</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.02309852746366764</v>
+        <v>4.530929501707068e-07</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-1.299291120700691</v>
+        <v>5.720742547115908e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>4.530929501707068e-07</v>
+        <v>-0.0225187128423079</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>5.720742547115908e-06</v>
+        <v>0.193248204888938</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>-0.0225187128423079</v>
+        <v>0.03784015427010517</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.193248204888938</v>
+        <v>1.547364158722898</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.03784015427010517</v>
+        <v>1.627930576986465</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.447666563613875</v>
+        <v>3.478396606555786</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1.627930576986465</v>
+        <v>1.703952404634729e-14</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>3.478396606555786</v>
+        <v>30626753.77720467</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>1.703952404634729e-14</v>
+        <v>3.520470271392445e-06</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>30626753.77720467</v>
+        <v>15.98304027608236</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>3.520470271392445e-06</v>
+        <v>0.0001094622408037041</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>15.98304027608236</v>
+        <v>7.182689956742597</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001094622408037041</v>
+        <v>1.581352939776356</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>7.182689956742597</v>
+        <v>0.005647270298090435</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.581352939776356</v>
+        <v>3.177696952972375</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.005647270298090435</v>
+        <v>0.9446602445454662</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>3.177696952972375</v>
+        <v>1.845005954641118</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9446602445454662</v>
+        <v>18</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.845005954641118</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.2921101786345285</v>
       </c>
     </row>
@@ -7812,72 +7572,66 @@
         <v>1.297149246761653e-07</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.001954107973440029</v>
+        <v>4.045950482101406e-07</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-1.292066145345859</v>
+        <v>5.717898646471055e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>4.045950482101406e-07</v>
+        <v>-0.02088250895291199</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>5.717898646471055e-06</v>
+        <v>0.194605912812216</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>-0.02088250895291199</v>
+        <v>0.03829362796928832</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.194605912812216</v>
+        <v>1.535992037637803</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.03829362796928832</v>
+        <v>1.716261717575529</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.435301874141341</v>
+        <v>3.762178049260565</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1.716261717575529</v>
+        <v>1.451978196609965e-14</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>3.762178049260565</v>
+        <v>35170607.34055889</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>1.451978196609965e-14</v>
+        <v>3.048855570673607e-06</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>35170607.34055889</v>
+        <v>17.96055823087172</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>3.048855570673607e-06</v>
+        <v>0.0001098575411936299</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>17.96055823087172</v>
+        <v>7.114003494800371</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0001098575411936299</v>
+        <v>1.587039945013452</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>7.114003494800371</v>
+        <v>0.005559785325398133</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.587039945013452</v>
+        <v>3.167152848650888</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.005559785325398133</v>
+        <v>0.9442313075616964</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>3.167152848650888</v>
+        <v>1.846497515396007</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9442313075616964</v>
+        <v>19</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.846497515396007</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.2954505828096465</v>
       </c>
     </row>
@@ -7892,72 +7646,66 @@
         <v>1.276266495809137e-07</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.01489377777535247</v>
+        <v>4.045950482101406e-07</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-1.247097960692435</v>
+        <v>5.715338786975438e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>4.045950482101406e-07</v>
+        <v>-0.01900723482974348</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>5.715338786975438e-06</v>
+        <v>0.1944658992707497</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>-0.01900723482974348</v>
+        <v>0.03816624388521744</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.1944658992707497</v>
+        <v>1.553808723046735</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.03816624388521744</v>
+        <v>1.732795335267514</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.454578879357953</v>
+        <v>3.771350559577678</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1.732795335267514</v>
+        <v>1.444923912628849e-14</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>3.771350559577678</v>
+        <v>35101235.67226095</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>1.444923912628849e-14</v>
+        <v>3.07208214155488e-06</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>35101235.67226095</v>
+        <v>17.80286050562443</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>3.07208214155488e-06</v>
+        <v>0.000109276130975701</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>17.80286050562443</v>
+        <v>7.381059419713659</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.000109276130975701</v>
+        <v>1.707990757638105</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>7.381059419713659</v>
+        <v>0.005953367785243083</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.707990757638105</v>
+        <v>3.263168766184899</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.005953367785243083</v>
+        <v>0.9460797853507052</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>3.263168766184899</v>
+        <v>1.822689272860406</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9460797853507052</v>
+        <v>16</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.822689272860406</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.3064605201854878</v>
       </c>
     </row>
@@ -7972,72 +7720,66 @@
         <v>1.263675649172344e-07</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.04832228602872678</v>
+        <v>4.045950482101406e-07</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-1.198787050141925</v>
+        <v>5.713037391093305e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>4.045950482101406e-07</v>
+        <v>-0.01735086611290198</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>5.713037391093305e-06</v>
+        <v>0.1939594857412831</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>-0.01735086611290198</v>
+        <v>0.03791324458361265</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.1939594857412831</v>
+        <v>1.554791063459062</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.03791324458361265</v>
+        <v>1.752222827585729</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.457847763794465</v>
+        <v>3.792453182331356</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1.752222827585729</v>
+        <v>1.428888460520555e-14</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>3.792453182331356</v>
+        <v>34562295.82949703</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>1.428888460520555e-14</v>
+        <v>3.101017982836567e-06</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>34562295.82949703</v>
+        <v>17.06881986964167</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>3.101017982836567e-06</v>
+        <v>0.0001263384064638223</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>17.06881986964167</v>
+        <v>9.201317133649182</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001263384064638223</v>
+        <v>1.656864085141392</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>9.201317133649182</v>
+        <v>0.01069634478629559</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.656864085141392</v>
+        <v>3.187287995160075</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.01069634478629559</v>
+        <v>0.9445385486668818</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>3.187287995160075</v>
+        <v>1.853710279238051</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9445385486668818</v>
+        <v>16</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.853710279238051</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.3254901557421907</v>
       </c>
     </row>
@@ -8052,72 +7794,66 @@
         <v>1.256925506249922e-07</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.08957652609602618</v>
+        <v>4.045950482101406e-07</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-1.163064732049351</v>
+        <v>5.710956984818474e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>4.045950482101406e-07</v>
+        <v>-0.01567134609005554</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>5.710956984818474e-06</v>
+        <v>0.193274371232968</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>-0.01567134609005554</v>
+        <v>0.03759650961616504</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.193274371232968</v>
+        <v>1.58233748632439</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.03759650961616504</v>
+        <v>1.59584412393688</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.485853061416023</v>
+        <v>3.820824798694971</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1.59584412393688</v>
+        <v>1.294744901605267e-14</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>3.820824798694971</v>
+        <v>36703781.1518986</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>1.294744901605267e-14</v>
+        <v>2.961126511507336e-06</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>36703781.1518986</v>
+        <v>17.44238318066517</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>2.961126511507336e-06</v>
+        <v>0.0001331896467780297</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>17.44238318066517</v>
+        <v>9.643514247100933</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001331896467780297</v>
+        <v>1.586293733001808</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>9.643514247100933</v>
+        <v>0.0123862864665504</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.586293733001808</v>
+        <v>3.10400580769137</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.0123862864665504</v>
+        <v>0.9465683682691935</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>3.10400580769137</v>
+        <v>1.83512226620053</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9465683682691935</v>
+        <v>15</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.83512226620053</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.3402914043863914</v>
       </c>
     </row>
@@ -8494,7 +8230,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.451600230672141</v>
+        <v>1.433383474992185</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.242215196686566</v>
@@ -8583,7 +8319,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.431008864807379</v>
+        <v>1.409148050001461</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.170790680926577</v>
@@ -8672,7 +8408,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.436333275891472</v>
+        <v>1.415933758634284</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.133550524913135</v>
@@ -8761,7 +8497,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.445412727698534</v>
+        <v>1.422208048140144</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.199162381199702</v>
@@ -8850,7 +8586,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.405694784272534</v>
+        <v>1.386126337017509</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.123157753489015</v>
@@ -8939,7 +8675,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.388106376918774</v>
+        <v>1.370319117690212</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.019297759056149</v>
@@ -9028,7 +8764,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.382725528800195</v>
+        <v>1.365339622710137</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.030766492995216</v>
@@ -9117,7 +8853,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.374996285050989</v>
+        <v>1.362081638506803</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.10718610180932</v>
@@ -9206,7 +8942,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.391946300223558</v>
+        <v>1.364692812598963</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.068743235576439</v>
@@ -9295,7 +9031,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.390711107365745</v>
+        <v>1.37652227249097</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.137000606257278</v>
@@ -9384,7 +9120,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.369101852764494</v>
+        <v>1.353767358898574</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.090532050854639</v>
@@ -9473,7 +9209,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.348321132954035</v>
+        <v>1.335694065546986</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.089823363983542</v>
@@ -9562,7 +9298,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.346107330898756</v>
+        <v>1.332394121440956</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.087206703930442</v>
@@ -9651,7 +9387,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.34591602197483</v>
+        <v>1.328053547013087</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.118152508467413</v>
@@ -9740,7 +9476,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.353728186439021</v>
+        <v>1.331332572181415</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.151162433944855</v>
@@ -9829,7 +9565,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.358282470131647</v>
+        <v>1.332551640160765</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.024092793260626</v>
@@ -9918,7 +9654,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.355708598641882</v>
+        <v>1.331751033125738</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.124709579740927</v>
@@ -10007,7 +9743,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.335830024003707</v>
+        <v>1.316120775777903</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.06690415392532</v>
@@ -10096,7 +9832,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.348222606146026</v>
+        <v>1.32414706079204</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.836122302619252</v>
@@ -10185,7 +9921,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.356389110933287</v>
+        <v>1.334871311255017</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.230454135655794</v>
@@ -10274,7 +10010,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.315980167873217</v>
+        <v>1.295766026478175</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.855416291860051</v>
@@ -10363,7 +10099,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.316761537611609</v>
+        <v>1.299989071093729</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.835331395260209</v>
@@ -10452,7 +10188,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.324218514379731</v>
+        <v>1.307254148502313</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.871193940520802</v>
@@ -10541,7 +10277,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.331994452301875</v>
+        <v>1.316682072761296</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.782951542038951</v>
@@ -10630,7 +10366,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.345277202713697</v>
+        <v>1.328111074799328</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.83502987153516</v>
@@ -10719,7 +10455,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.378982549816355</v>
+        <v>1.355674953594824</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.819072432121414</v>
@@ -10808,7 +10544,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.357051892369194</v>
+        <v>1.340834848007112</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.849663490747332</v>
@@ -10897,7 +10633,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.357086504774148</v>
+        <v>1.340956626224344</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.865860356418897</v>
@@ -10986,7 +10722,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.352287547551901</v>
+        <v>1.340168846463956</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.865046224889363</v>
@@ -11075,7 +10811,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.348280146112839</v>
+        <v>1.339499118657846</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.856927260116769</v>
@@ -11164,7 +10900,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.344865613861641</v>
+        <v>1.341790979038235</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.846662223702477</v>
@@ -11253,7 +10989,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.342089982952299</v>
+        <v>1.339360793409599</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.846974094229571</v>
@@ -11342,7 +11078,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.35701749534635</v>
+        <v>1.350535199237699</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.848613787199566</v>
@@ -11431,7 +11167,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.370876890721041</v>
+        <v>1.361679952836613</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.835075137442793</v>
@@ -11520,7 +11256,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.387805480342232</v>
+        <v>1.378276020828172</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.813523019032129</v>
@@ -11609,7 +11345,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.512992379458704</v>
+        <v>1.492182601713715</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.175323193884766</v>
@@ -11698,7 +11434,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.511383076936136</v>
+        <v>1.488019086781361</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.439307893199863</v>
@@ -11787,7 +11523,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.506793239984619</v>
+        <v>1.482234655069192</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.550676762992559</v>
@@ -11876,7 +11612,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.480946736363141</v>
+        <v>1.465928815096075</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.465335248935006</v>
@@ -11965,7 +11701,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.465556218549575</v>
+        <v>1.459250187935606</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.364365544940475</v>
@@ -12054,7 +11790,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.480629943084567</v>
+        <v>1.465207758844331</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.347129389618162</v>
@@ -12143,7 +11879,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.524337965877644</v>
+        <v>1.503139121609352</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.553725707241147</v>
@@ -12232,7 +11968,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.532062591605716</v>
+        <v>1.509359960251368</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.361330167422403</v>
@@ -12321,7 +12057,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.48216684631945</v>
+        <v>1.467606256851645</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.142490637265251</v>
@@ -12410,7 +12146,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.474742079380154</v>
+        <v>1.465271430449552</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.098626579588398</v>
@@ -12499,7 +12235,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.478402076727729</v>
+        <v>1.461058388946388</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.09170723156919</v>
@@ -12588,7 +12324,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.506817316559324</v>
+        <v>1.490049567148109</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.05275949311947</v>
@@ -12677,7 +12413,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.476296512689712</v>
+        <v>1.467970529711848</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.163714859417308</v>
@@ -12766,7 +12502,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.48130397764746</v>
+        <v>1.47495184953387</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.076213896699735</v>
@@ -12855,7 +12591,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.476005598652699</v>
+        <v>1.471330228496323</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.092459491644622</v>
@@ -12944,7 +12680,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.474378171509188</v>
+        <v>1.465129827438031</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.160591308203153</v>
@@ -13033,7 +12769,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.487991433423937</v>
+        <v>1.478457663738258</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.054376215531728</v>
@@ -13122,7 +12858,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.492169200463716</v>
+        <v>1.485214238368062</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.991832822842565</v>
@@ -13211,7 +12947,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.516701185159834</v>
+        <v>1.501434728522846</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.08463027226958</v>
@@ -13300,7 +13036,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.523188428291163</v>
+        <v>1.497621325473791</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.148869546444873</v>
@@ -13389,7 +13125,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.521444131641479</v>
+        <v>1.497730635329392</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.078150192835732</v>
@@ -13478,7 +13214,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.524703172642975</v>
+        <v>1.499889451122957</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.088825760685206</v>
@@ -13567,7 +13303,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.487344433896095</v>
+        <v>1.471067618062223</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.103375953856151</v>
@@ -13656,7 +13392,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.53608030705157</v>
+        <v>1.512131806322804</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.014992755694391</v>
@@ -13745,7 +13481,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.54438704216786</v>
+        <v>1.516161649929287</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.185117557060429</v>
@@ -13834,7 +13570,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.542693788706212</v>
+        <v>1.516956817624872</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.221909925103613</v>
@@ -13923,7 +13659,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.555026353649264</v>
+        <v>1.522533501902242</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.18385307598126</v>
@@ -14012,7 +13748,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.610668477170777</v>
+        <v>1.566291555227808</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.533532037016791</v>
@@ -14101,7 +13837,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.613954368511752</v>
+        <v>1.568911955975802</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.467819318297121</v>
@@ -14190,7 +13926,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.625638322721036</v>
+        <v>1.574984902566046</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.568937252167838</v>
@@ -14279,7 +14015,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.599064461050417</v>
+        <v>1.563810475849441</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.53778447150791</v>
@@ -14368,7 +14104,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.599254203264174</v>
+        <v>1.561717735578893</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.533035257074787</v>
@@ -14457,7 +14193,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.604045806935516</v>
+        <v>1.558689207983203</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.526093238596745</v>
@@ -14546,7 +14282,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.575035535577793</v>
+        <v>1.538967958425173</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.44757980430414</v>
@@ -14635,7 +14371,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.576810001745637</v>
+        <v>1.549673437165558</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.530739974903397</v>
@@ -14724,7 +14460,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.579118279005863</v>
+        <v>1.550347789780291</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.712616435630322</v>
@@ -14813,7 +14549,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.584801696320381</v>
+        <v>1.549147202909024</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.531087045196802</v>
@@ -14902,7 +14638,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.582283323141017</v>
+        <v>1.547572893024416</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.213679181731242</v>
@@ -14991,7 +14727,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.57315839015015</v>
+        <v>1.545164699151419</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.43189530796222</v>
@@ -15080,7 +14816,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.558262845286256</v>
+        <v>1.530380351283487</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.502021085121951</v>
@@ -15169,7 +14905,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.542139079011062</v>
+        <v>1.510094676180325</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.480852639192278</v>
@@ -15258,7 +14994,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.418573418460765</v>
+        <v>1.399666833205475</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.735431810496477</v>
@@ -15347,7 +15083,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.416642486726954</v>
+        <v>1.399955826464245</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.746770938703833</v>
@@ -15436,7 +15172,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.416850671860262</v>
+        <v>1.394915413375724</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.74332359654614</v>
@@ -15525,7 +15261,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.419708904613055</v>
+        <v>1.394922621481757</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.738483389717084</v>
@@ -15614,7 +15350,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.381345355466722</v>
+        <v>1.36032115205509</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.762162127355538</v>
@@ -15703,7 +15439,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.363432939408088</v>
+        <v>1.346800595326372</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>1.751217982321026</v>
@@ -15792,7 +15528,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.361719070531538</v>
+        <v>1.34297730863743</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>1.756651158116029</v>
@@ -15881,7 +15617,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.365589825296913</v>
+        <v>1.346335075647301</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>1.753567308298596</v>
@@ -15970,7 +15706,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.355125865784243</v>
+        <v>1.334314510488495</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>1.754060540745665</v>
@@ -16059,7 +15795,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.349682539067733</v>
+        <v>1.331919260333384</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>1.747852275774191</v>
@@ -16148,7 +15884,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.345589305235543</v>
+        <v>1.327380176981072</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>1.760296670949141</v>
@@ -16434,7 +16170,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.635614638054671</v>
+        <v>1.583722811523479</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.367794027052614</v>
@@ -16523,7 +16259,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.630765637198058</v>
+        <v>1.577611078363032</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.401138829557352</v>
@@ -16612,7 +16348,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.628700406613331</v>
+        <v>1.574237748140736</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.338455101553397</v>
@@ -16701,7 +16437,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.611583201998839</v>
+        <v>1.550665410603248</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.309841320264702</v>
@@ -16790,7 +16526,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.597920645554523</v>
+        <v>1.538692794681475</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.349365779879831</v>
@@ -16879,7 +16615,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.600749441169297</v>
+        <v>1.534245230105383</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.303124343565666</v>
@@ -16968,7 +16704,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.607658142070501</v>
+        <v>1.545064260119696</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.329712537767954</v>
@@ -17057,7 +16793,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.599274985044062</v>
+        <v>1.528775366878603</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.313736368090044</v>
@@ -17146,7 +16882,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.636219783656234</v>
+        <v>1.543396783566362</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.148588780738434</v>
@@ -17235,7 +16971,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.688428158746889</v>
+        <v>1.583398658865602</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.298110626806759</v>
@@ -17324,7 +17060,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.684230418702382</v>
+        <v>1.575666578367441</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.718420597067877</v>
@@ -17413,7 +17149,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.692846420101451</v>
+        <v>1.580398897139958</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.674349000153845</v>
@@ -17502,7 +17238,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.689206099704536</v>
+        <v>1.579569805329512</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.558030219784351</v>
@@ -17591,7 +17327,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.691485004395172</v>
+        <v>1.579770163512378</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.595105696910899</v>
@@ -17680,7 +17416,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.691788534977017</v>
+        <v>1.575113502543572</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.337360333120398</v>
@@ -17769,7 +17505,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.683812563749659</v>
+        <v>1.562918267294737</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.248891164111552</v>
@@ -17858,7 +17594,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.671461819313031</v>
+        <v>1.551353849197805</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.170707663981402</v>
@@ -17947,7 +17683,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.663909890452032</v>
+        <v>1.55092993879313</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.178618641815968</v>
@@ -18036,7 +17772,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.667338578063698</v>
+        <v>1.557817400220811</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.15627178676707</v>
@@ -18125,7 +17861,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.660073784571117</v>
+        <v>1.543376387285761</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.864234709229419</v>
@@ -18214,7 +17950,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.653705412238373</v>
+        <v>1.539874472775347</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.668457674916359</v>
@@ -18303,7 +18039,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.660628558317727</v>
+        <v>1.539742122086099</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.008491967818398</v>
@@ -18392,7 +18128,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.671530722697731</v>
+        <v>1.55852222047067</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.92513491244843</v>
@@ -18481,7 +18217,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.670158306950434</v>
+        <v>1.560269379024351</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.775273319429894</v>
@@ -18570,7 +18306,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.670716432839365</v>
+        <v>1.559225831038662</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.154622376314546</v>
@@ -18659,7 +18395,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.667927428662104</v>
+        <v>1.557385192389114</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.996542315215744</v>
@@ -18748,7 +18484,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.660794947005164</v>
+        <v>1.563217852639146</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.86346262776251</v>
@@ -18837,7 +18573,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.669876790065552</v>
+        <v>1.571430839546644</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.097268951752841</v>
@@ -18926,7 +18662,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.66208196742467</v>
+        <v>1.558195332052206</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.104386978975845</v>
@@ -19015,7 +18751,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.665063422582818</v>
+        <v>1.566557207311176</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.031308954809757</v>
@@ -19104,7 +18840,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.670343140630597</v>
+        <v>1.572754675774952</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.653524690652916</v>
@@ -19193,7 +18929,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.687987253534297</v>
+        <v>1.586053921446895</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.916514443850063</v>
@@ -19282,7 +19018,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.689999612678888</v>
+        <v>1.590050265712147</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.195128249257024</v>
@@ -19371,7 +19107,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.705659541895712</v>
+        <v>1.602461356321784</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.222782836251215</v>
@@ -19460,7 +19196,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.72400398561574</v>
+        <v>1.617589568236228</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.114192575742745</v>
@@ -19549,7 +19285,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.737870239410826</v>
+        <v>1.62352810752486</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.672100759305632</v>
@@ -19638,7 +19374,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.742683953800956</v>
+        <v>1.629278954868798</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.717297640197159</v>
@@ -19727,7 +19463,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.739252680123002</v>
+        <v>1.619499495560667</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.791428509451331</v>
@@ -19816,7 +19552,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.739670726697311</v>
+        <v>1.623073727016016</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.839031508106848</v>
@@ -19905,7 +19641,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.745067688185614</v>
+        <v>1.625848525728703</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.090318478262654</v>
@@ -19994,7 +19730,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.763977325053433</v>
+        <v>1.635836690610797</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.147021660842289</v>
@@ -20083,7 +19819,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.765602104253226</v>
+        <v>1.624187140901647</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.701825255747305</v>
@@ -20172,7 +19908,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.754826341206213</v>
+        <v>1.615664918301124</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.633795217040315</v>
@@ -20261,7 +19997,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.748236084007252</v>
+        <v>1.624574872840856</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.851030956872564</v>
@@ -20350,7 +20086,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.737658896605116</v>
+        <v>1.622586572079084</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.016272638346651</v>
@@ -20439,7 +20175,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.73994166922282</v>
+        <v>1.624583890093501</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.927658884143347</v>
@@ -20528,7 +20264,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.745953260762438</v>
+        <v>1.636004709187395</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.814149649570505</v>
@@ -20617,7 +20353,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.757108240111228</v>
+        <v>1.646629118588719</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.909506277704729</v>
@@ -20706,7 +20442,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.748170156474783</v>
+        <v>1.642128058010541</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.878322493118957</v>
@@ -20795,7 +20531,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.73931476125507</v>
+        <v>1.643537405256702</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.659419886549511</v>
@@ -20884,7 +20620,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.730263572495493</v>
+        <v>1.63933888973092</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.970803362331234</v>
@@ -20973,7 +20709,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.725701781526755</v>
+        <v>1.637459039527785</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.816275897789511</v>
@@ -21062,7 +20798,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.726773538124913</v>
+        <v>1.643471441381974</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.969090868241539</v>
@@ -21151,7 +20887,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.728113699151749</v>
+        <v>1.641537165779234</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.895185437634991</v>
@@ -21240,7 +20976,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.726216112373737</v>
+        <v>1.643854628551582</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.918689435180533</v>
@@ -21329,7 +21065,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.71052488833322</v>
+        <v>1.628868934482798</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.919861106288043</v>
@@ -21418,7 +21154,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.703666298424687</v>
+        <v>1.62965341964438</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.047204676410456</v>
@@ -21507,7 +21243,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.707655370698584</v>
+        <v>1.638485549487023</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.927991882043297</v>
@@ -21596,7 +21332,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.723663208342963</v>
+        <v>1.64467000498879</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.321768228847498</v>
@@ -21685,7 +21421,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.73111552920049</v>
+        <v>1.64479922047159</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.967806936064142</v>
@@ -21774,7 +21510,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.72450100774061</v>
+        <v>1.631255900993483</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.535138555287326</v>
@@ -21863,7 +21599,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.711574753065845</v>
+        <v>1.616311050349215</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.668388428835213</v>
@@ -21952,7 +21688,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.685255868444709</v>
+        <v>1.590614244075341</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.287729324938808</v>
@@ -22041,7 +21777,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.684012083803844</v>
+        <v>1.589857597800957</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.798158159401809</v>
@@ -22130,7 +21866,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.688122407645443</v>
+        <v>1.588051484551006</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.586891927427348</v>
@@ -22219,7 +21955,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.697014070115978</v>
+        <v>1.60878791646946</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.358181797838406</v>
@@ -22308,7 +22044,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.694650691556737</v>
+        <v>1.594513745517651</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.391364422077171</v>
@@ -22397,7 +22133,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.692621003675626</v>
+        <v>1.595873336832047</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.442371020860794</v>
@@ -22486,7 +22222,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.693116815080864</v>
+        <v>1.595364404940414</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.871190182705328</v>
@@ -22575,7 +22311,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.695621265423379</v>
+        <v>1.602993789598081</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.569671631015487</v>
@@ -22664,7 +22400,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.700279164196527</v>
+        <v>1.606336076977742</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.550216279003828</v>
@@ -22753,7 +22489,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.713121457218285</v>
+        <v>1.613166494867918</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.403564622504662</v>
@@ -22842,7 +22578,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.724425176358663</v>
+        <v>1.626505338144598</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.696586825058835</v>
@@ -22931,7 +22667,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.721145855552839</v>
+        <v>1.638255974869596</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.433344337078652</v>
@@ -23020,7 +22756,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.714641943355783</v>
+        <v>1.628841334977694</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.719294520225267</v>
@@ -23109,7 +22845,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.712630278205141</v>
+        <v>1.62709476597317</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.743005540031391</v>
@@ -23198,7 +22934,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.703127799899606</v>
+        <v>1.612614770749793</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.602684992115253</v>
@@ -23287,7 +23023,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.708176902065387</v>
+        <v>1.614402426650239</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.76683488258324</v>
@@ -23376,7 +23112,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.702535388116087</v>
+        <v>1.609796439332426</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.978577826836383</v>
@@ -23465,7 +23201,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.70398689185591</v>
+        <v>1.610360148466415</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.983528332919884</v>
@@ -23554,7 +23290,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.707324952338935</v>
+        <v>1.610845323968009</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.801217984021977</v>
@@ -23643,7 +23379,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.709022004728355</v>
+        <v>1.609492614174391</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.895973521569784</v>
@@ -23732,7 +23468,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.701381072521615</v>
+        <v>1.597909449204873</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.959032593275628</v>
@@ -23821,7 +23557,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.694692237722828</v>
+        <v>1.593924467031268</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.852472110383672</v>
@@ -23910,7 +23646,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.679477794699081</v>
+        <v>1.572227121630931</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.897354862172166</v>
@@ -23999,7 +23735,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.686181442813262</v>
+        <v>1.586689174177361</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.933434393409714</v>
@@ -24088,7 +23824,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.6744763319114</v>
+        <v>1.574206595576319</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.873100659083115</v>
@@ -24374,7 +24110,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.586448884549762</v>
+        <v>1.526239495016505</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.287135706680544</v>
@@ -24463,7 +24199,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.583599718048061</v>
+        <v>1.522925228776177</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.273652414697857</v>
@@ -24552,7 +24288,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.58295083698291</v>
+        <v>1.520555322382589</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.256777971375568</v>
@@ -24641,7 +24377,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.5794331758194</v>
+        <v>1.519681178671586</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.244253040246215</v>
@@ -24730,7 +24466,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.564840797189345</v>
+        <v>1.507189014159052</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.238853645099283</v>
@@ -24819,7 +24555,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.563327658822205</v>
+        <v>1.499405228881491</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.226245628747344</v>
@@ -24908,7 +24644,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.581451740242035</v>
+        <v>1.505842240177235</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.223692514231061</v>
@@ -24997,7 +24733,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.584522583494398</v>
+        <v>1.497833233466809</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.215584006098414</v>
@@ -25086,7 +24822,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.634655549496479</v>
+        <v>1.520719088307896</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.060184456674598</v>
@@ -25175,7 +24911,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.699703492902446</v>
+        <v>1.563162410269712</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.111414171972486</v>
@@ -25264,7 +25000,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.689577260855728</v>
+        <v>1.551067132046398</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.321356431805429</v>
@@ -25353,7 +25089,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.681826467495551</v>
+        <v>1.550398163521652</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.781406158329518</v>
@@ -25442,7 +25178,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.681930252220216</v>
+        <v>1.541253970363112</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.817341431372999</v>
@@ -25531,7 +25267,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.681325917120349</v>
+        <v>1.535464235533327</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.210524257994935</v>
@@ -25620,7 +25356,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.679430290170324</v>
+        <v>1.530541270930104</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.167635103899623</v>
@@ -25709,7 +25445,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.683168798722462</v>
+        <v>1.526150613835447</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.611958071001079</v>
@@ -25798,7 +25534,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.674911114101736</v>
+        <v>1.524725598836157</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.25594640273133</v>
@@ -25887,7 +25623,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.651080419200945</v>
+        <v>1.523612346383042</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.895290706246866</v>
@@ -25976,7 +25712,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.650394005145954</v>
+        <v>1.522558539186725</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.040214367448782</v>
@@ -26065,7 +25801,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.655798398619761</v>
+        <v>1.52120265840345</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.80690596363905</v>
@@ -26154,7 +25890,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.56593283162223</v>
+        <v>1.465894036218754</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.079670662023189</v>
@@ -26243,7 +25979,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.566486705758394</v>
+        <v>1.476156838365303</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.11405858664851</v>
@@ -26332,7 +26068,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.560961286313288</v>
+        <v>1.482923853994655</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.138337461947741</v>
@@ -26421,7 +26157,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.55560370616637</v>
+        <v>1.486087013353782</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.094039887800759</v>
@@ -26510,7 +26246,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.562611034844382</v>
+        <v>1.492360381484993</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.109038188233751</v>
@@ -26599,7 +26335,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.577522255140996</v>
+        <v>1.505581718184189</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.073367882526409</v>
@@ -26688,7 +26424,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.578993778636054</v>
+        <v>1.504184653331289</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.146660053743077</v>
@@ -26777,7 +26513,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.582250589945307</v>
+        <v>1.509644704403293</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.113606768863399</v>
@@ -26866,7 +26602,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.58501031685218</v>
+        <v>1.510260962680835</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.121903574679378</v>
@@ -26955,7 +26691,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.584596421010163</v>
+        <v>1.508468911253794</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.150080426674228</v>
@@ -27044,7 +26780,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.583930447169146</v>
+        <v>1.511493598179153</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.115056087023641</v>
@@ -27133,7 +26869,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.583209827481825</v>
+        <v>1.510478673595099</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.109551734405994</v>
@@ -27222,7 +26958,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.602466315801821</v>
+        <v>1.520841196946302</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.056755462429746</v>
@@ -27311,7 +27047,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.598784803535754</v>
+        <v>1.51279279383719</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.068649639991951</v>
@@ -27400,7 +27136,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.604793942192366</v>
+        <v>1.517282666220134</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.082825734669185</v>
@@ -27489,7 +27225,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.724490525102449</v>
+        <v>1.590417112272194</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.5599767870684</v>
@@ -27578,7 +27314,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.715714697503326</v>
+        <v>1.574161767056012</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.791776561981224</v>
@@ -27667,7 +27403,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.711392402416831</v>
+        <v>1.564046387564826</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.281469979008066</v>
@@ -27756,7 +27492,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.709805368453665</v>
+        <v>1.565172452180979</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.589267185868802</v>
@@ -27845,7 +27581,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.707539080228565</v>
+        <v>1.565702237261966</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.56192915780735</v>
@@ -27934,7 +27670,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.710461946027978</v>
+        <v>1.565397389254791</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.759658267046032</v>
@@ -28023,7 +27759,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.715566969804491</v>
+        <v>1.568738121645403</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.461562963869445</v>
@@ -28112,7 +27848,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.713953693826649</v>
+        <v>1.570149651006901</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.606508232069073</v>
@@ -28201,7 +27937,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.676282429571389</v>
+        <v>1.552107393448333</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.606920850966427</v>
@@ -28290,7 +28026,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.658386461848294</v>
+        <v>1.550175469508119</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.551172899858741</v>
@@ -28379,7 +28115,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.666189365664094</v>
+        <v>1.554420065219876</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.637227556337138</v>
@@ -28468,7 +28204,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.670540254874104</v>
+        <v>1.555621607196246</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.57803071965909</v>
@@ -28557,7 +28293,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.669502975334912</v>
+        <v>1.55733465545615</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.640857949911582</v>
@@ -28646,7 +28382,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.681548323180336</v>
+        <v>1.576742485784267</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.655280082139302</v>
@@ -28735,7 +28471,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.682415842357323</v>
+        <v>1.573585616294231</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.645595318924822</v>
@@ -28824,7 +28560,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.676475462658002</v>
+        <v>1.569263475722561</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.703339745712476</v>
@@ -28913,7 +28649,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.688289180304031</v>
+        <v>1.586647242971791</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.521999211663992</v>
@@ -29002,7 +28738,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.685968962388366</v>
+        <v>1.586583741721121</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.706163147224272</v>
@@ -29091,7 +28827,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.691246912965896</v>
+        <v>1.591050880034078</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.588354261381261</v>
@@ -29180,7 +28916,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.67734775648905</v>
+        <v>1.567441575956635</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.70349885413871</v>
@@ -29269,7 +29005,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.677476561529963</v>
+        <v>1.572591618820776</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.702891155657615</v>
@@ -29358,7 +29094,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.673386358080571</v>
+        <v>1.567449046033345</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.693073974159733</v>
@@ -29447,7 +29183,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.668678984825096</v>
+        <v>1.566549655757685</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.606761163422008</v>
@@ -29536,7 +29272,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.715761372407115</v>
+        <v>1.596025393465053</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.437631242518633</v>
@@ -29625,7 +29361,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.729349459859536</v>
+        <v>1.603717635640811</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.570809800918199</v>
@@ -29714,7 +29450,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.721976558888653</v>
+        <v>1.597128420407391</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.720527456740721</v>
@@ -29803,7 +29539,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.716205626934985</v>
+        <v>1.593657880047093</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.015331139235222</v>
@@ -29892,7 +29628,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.712077995165128</v>
+        <v>1.581732102296633</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.202319801723271</v>
@@ -29981,7 +29717,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.707212395098711</v>
+        <v>1.574089452295405</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.364272654551251</v>
@@ -30070,7 +29806,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.705271637324962</v>
+        <v>1.576194900853596</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.705570836504686</v>
@@ -30159,7 +29895,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.709492078989569</v>
+        <v>1.584314673829459</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.451917421762072</v>
@@ -30248,7 +29984,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.700940173909373</v>
+        <v>1.565801662018754</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.47694128609686</v>
@@ -30337,7 +30073,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.69773924460795</v>
+        <v>1.559422391826842</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.678826535994559</v>
@@ -30426,7 +30162,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.706472486727346</v>
+        <v>1.559776070726444</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.816516033303851</v>
@@ -30515,7 +30251,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.71318687902306</v>
+        <v>1.57112493744168</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.250309353956639</v>
@@ -30604,7 +30340,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.706797033387955</v>
+        <v>1.559593543371159</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.410285463358592</v>
@@ -30693,7 +30429,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.716696088906134</v>
+        <v>1.568027639827232</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.114028237656377</v>
@@ -30782,7 +30518,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.717260515952648</v>
+        <v>1.570749005608218</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.482736790486445</v>
@@ -30871,7 +30607,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.716506085834982</v>
+        <v>1.565363629457521</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.170825097094772</v>
@@ -30960,7 +30696,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.718332346289444</v>
+        <v>1.563652210574347</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.991361649056512</v>
@@ -31049,7 +30785,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.705158549203468</v>
+        <v>1.547436111707994</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.471414350535516</v>
@@ -31138,7 +30874,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.602337513340401</v>
+        <v>1.491369059015695</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.001595617558557</v>
@@ -31227,7 +30963,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.600672012751092</v>
+        <v>1.496605162304843</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.968913561780705</v>
@@ -31316,7 +31052,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.595380425385237</v>
+        <v>1.488920881723386</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.017385959610204</v>
@@ -31405,7 +31141,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.615876273375751</v>
+        <v>1.512705393020015</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.044863801125337</v>
@@ -31494,7 +31230,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.605331626383368</v>
+        <v>1.508819088886689</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.022830218673582</v>
@@ -31583,7 +31319,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.606577254702119</v>
+        <v>1.516780453536902</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.040902713354442</v>
@@ -31672,7 +31408,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.609533995829795</v>
+        <v>1.512985257814091</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.052532502171738</v>
@@ -31761,7 +31497,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.599063668706244</v>
+        <v>1.508354742834723</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.039198123761661</v>
@@ -31850,7 +31586,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.594907333541095</v>
+        <v>1.500661157010322</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.047355175367689</v>
@@ -31939,7 +31675,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.598566561596573</v>
+        <v>1.509428664478658</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.072727184157563</v>
@@ -32028,7 +31764,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.592292483210633</v>
+        <v>1.5046945770892</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.046084657796747</v>
@@ -32314,7 +32050,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.604692567499925</v>
+        <v>1.490131901515684</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.342576260348401</v>
@@ -32403,7 +32139,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.611359993125473</v>
+        <v>1.485777770466812</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.352856456965348</v>
@@ -32492,7 +32228,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.614233682762369</v>
+        <v>1.490688321616594</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.298978832909663</v>
@@ -32581,7 +32317,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.611557602881514</v>
+        <v>1.4819601027417</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.313739285263532</v>
@@ -32670,7 +32406,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.595504812136885</v>
+        <v>1.467981420887872</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.256270462996157</v>
@@ -32759,7 +32495,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.58641744466589</v>
+        <v>1.462860869373917</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.365368228918757</v>
@@ -32848,7 +32584,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.601971868747565</v>
+        <v>1.470541534290972</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.353127302836598</v>
@@ -32937,7 +32673,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.596831097834427</v>
+        <v>1.460257218042357</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.321049083434339</v>
@@ -33026,7 +32762,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.615564412779974</v>
+        <v>1.469154949294401</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.223615411387883</v>
@@ -33115,7 +32851,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.635342480800482</v>
+        <v>1.465324903223574</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.769140151183353</v>
@@ -33204,7 +32940,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.628975445408501</v>
+        <v>1.462636693742144</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.047878356967507</v>
@@ -33293,7 +33029,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.620024404949214</v>
+        <v>1.459468390929237</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.942372099264685</v>
@@ -33382,7 +33118,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.62288483726761</v>
+        <v>1.455873160844406</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.419014528266712</v>
@@ -33471,7 +33207,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.622211268502358</v>
+        <v>1.457257184468141</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.384975822349924</v>
@@ -33560,7 +33296,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.618432167552078</v>
+        <v>1.447441501213449</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.29950942977071</v>
@@ -33649,7 +33385,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.612804731849692</v>
+        <v>1.439849138944773</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.078394346607796</v>
@@ -33738,7 +33474,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.605794241677216</v>
+        <v>1.434982696315649</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.436968174637426</v>
@@ -33827,7 +33563,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.601253263830755</v>
+        <v>1.435857567400079</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.052921428033488</v>
@@ -33916,7 +33652,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.600761554446716</v>
+        <v>1.43518886072121</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.035192211331402</v>
@@ -34005,7 +33741,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.609644250001251</v>
+        <v>1.4375275821244</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.276501641188808</v>
@@ -34094,7 +33830,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.571406830628027</v>
+        <v>1.419365438244589</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.319065512411673</v>
@@ -34183,7 +33919,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.571614366108274</v>
+        <v>1.425149542583296</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.359313713030112</v>
@@ -34272,7 +34008,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.575955630028165</v>
+        <v>1.430911878484268</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.310362998726236</v>
@@ -34361,7 +34097,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.574150360053909</v>
+        <v>1.423479008296392</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.368148135780493</v>
@@ -34450,7 +34186,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.577669979155497</v>
+        <v>1.428949612342155</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.349870486429191</v>
@@ -34539,7 +34275,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.591188259016146</v>
+        <v>1.431681436561082</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.310102051822736</v>
@@ -34628,7 +34364,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.591702988140738</v>
+        <v>1.427206494402563</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.384042089752674</v>
@@ -34717,7 +34453,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.588572608637354</v>
+        <v>1.429334405678415</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.299070675075649</v>
@@ -34806,7 +34542,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.590506281475869</v>
+        <v>1.426038656470523</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.42510540585078</v>
@@ -34895,7 +34631,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.590441742222315</v>
+        <v>1.426187219686488</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.335446427044715</v>
@@ -34984,7 +34720,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.593948008092108</v>
+        <v>1.43627443928407</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.309951470841644</v>
@@ -35073,7 +34809,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.599313848097256</v>
+        <v>1.439917607945651</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.325915761694622</v>
@@ -35162,7 +34898,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.595843873985954</v>
+        <v>1.436497155265767</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.274516347048882</v>
@@ -35251,7 +34987,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.591585154210737</v>
+        <v>1.429635693487421</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.271987629324283</v>
@@ -35340,7 +35076,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.600318032988435</v>
+        <v>1.437571769490596</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.190971834214853</v>
@@ -35429,7 +35165,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.660535267105117</v>
+        <v>1.46190456530175</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.833963014524913</v>
@@ -35518,7 +35254,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.657595009242073</v>
+        <v>1.457185221694816</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.055749688035479</v>
@@ -35607,7 +35343,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.652223182790764</v>
+        <v>1.455587664713145</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.277376756718147</v>
@@ -35696,7 +35432,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.647456653442397</v>
+        <v>1.452335378103095</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.319564689967773</v>
@@ -35785,7 +35521,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.645529637611856</v>
+        <v>1.447481488679192</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.148424382982254</v>
@@ -35874,7 +35610,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.641968809869001</v>
+        <v>1.450577295329901</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.942402509047124</v>
@@ -35963,7 +35699,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.653795152364508</v>
+        <v>1.454495896322445</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.396259411025206</v>
@@ -36052,7 +35788,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.655472941635424</v>
+        <v>1.460735039992501</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.199626764937501</v>
@@ -36141,7 +35877,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.63627595507286</v>
+        <v>1.466941755157435</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.8162870851328</v>
@@ -36230,7 +35966,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.619028627459949</v>
+        <v>1.452191250763612</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.757017696027565</v>
@@ -36319,7 +36055,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.629571695485477</v>
+        <v>1.456454252200045</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.627701924852467</v>
@@ -36408,7 +36144,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.63070111923219</v>
+        <v>1.457884526181342</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.661367995844263</v>
@@ -36497,7 +36233,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.637704554524686</v>
+        <v>1.471422233057547</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.675569775249582</v>
@@ -36586,7 +36322,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.64623177620613</v>
+        <v>1.485273143673981</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.695789063245347</v>
@@ -36675,7 +36411,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.647117454216233</v>
+        <v>1.485991333464491</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.516910637564501</v>
@@ -36764,7 +36500,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.631116710484429</v>
+        <v>1.480078100702328</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.740314478979223</v>
@@ -36853,7 +36589,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.615554133812151</v>
+        <v>1.464149328289423</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.703695051038708</v>
@@ -36942,7 +36678,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.616151264565693</v>
+        <v>1.467336324724726</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.687345580182667</v>
@@ -37031,7 +36767,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.619045890980878</v>
+        <v>1.464934996577382</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.785043460413259</v>
@@ -37120,7 +36856,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.617898515335254</v>
+        <v>1.466151520027323</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.741335864089049</v>
@@ -37209,7 +36945,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.623982845399721</v>
+        <v>1.473994327943058</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.643888263611053</v>
@@ -37298,7 +37034,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.619966184231957</v>
+        <v>1.477786908168738</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.749697651325342</v>
@@ -37387,7 +37123,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.616218380555543</v>
+        <v>1.476353776788236</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.576755550133713</v>
@@ -37476,7 +37212,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.632587861417557</v>
+        <v>1.487657136134323</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.501482890091414</v>
@@ -37565,7 +37301,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.642687941494894</v>
+        <v>1.481067502976718</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.154571406410414</v>
@@ -37654,7 +37390,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.636028439391891</v>
+        <v>1.473786744791545</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.346604845021146</v>
@@ -37743,7 +37479,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.637239820728447</v>
+        <v>1.47786485581071</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.151306208096652</v>
@@ -37832,7 +37568,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.634172617678178</v>
+        <v>1.474368054248586</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.197516607809578</v>
@@ -37921,7 +37657,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.62925527831936</v>
+        <v>1.469612935129166</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.232598980694789</v>
@@ -38010,7 +37746,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.634070059719803</v>
+        <v>1.46866347734879</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.341251869244056</v>
@@ -38099,7 +37835,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.653157880739301</v>
+        <v>1.472324572784766</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.207939677372499</v>
@@ -38188,7 +37924,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.663913700653063</v>
+        <v>1.485662514244902</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.222311790641165</v>
@@ -38277,7 +38013,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.657763370086929</v>
+        <v>1.479472731480509</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.110450039735965</v>
@@ -38366,7 +38102,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.653630943206621</v>
+        <v>1.473078020895922</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.499849047055254</v>
@@ -38455,7 +38191,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.651693367311794</v>
+        <v>1.477996829191079</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.463093989795797</v>
@@ -38544,7 +38280,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.647478986985489</v>
+        <v>1.47303144908486</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.643178827836587</v>
@@ -38633,7 +38369,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.646129516230493</v>
+        <v>1.473017944996187</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.380058070631141</v>
@@ -38722,7 +38458,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.647116664594811</v>
+        <v>1.469893716073505</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.687325009372988</v>
@@ -38811,7 +38547,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.651197630262269</v>
+        <v>1.468430274992709</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.494711557637061</v>
@@ -38900,7 +38636,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.651907609299096</v>
+        <v>1.485291018260124</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.826659494178432</v>
@@ -38989,7 +38725,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.65008842564321</v>
+        <v>1.483657219158311</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.561723941705047</v>
@@ -39078,7 +38814,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.594235632871952</v>
+        <v>1.456658946532929</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.259649352416668</v>
@@ -39167,7 +38903,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.594288700539308</v>
+        <v>1.448195519496978</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.218510394982448</v>
@@ -39256,7 +38992,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.599316544131329</v>
+        <v>1.443066134974972</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.241041176766779</v>
@@ -39345,7 +39081,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.590345729204182</v>
+        <v>1.433520766743195</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.196849440953549</v>
@@ -39434,7 +39170,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.580821725537222</v>
+        <v>1.434226345131578</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.298395461002528</v>
@@ -39523,7 +39259,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.575875917640643</v>
+        <v>1.428613717049718</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.246327080209728</v>
@@ -39612,7 +39348,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.565344265852667</v>
+        <v>1.419599439372976</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.249135929647871</v>
@@ -39701,7 +39437,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.560380365825212</v>
+        <v>1.418038738979592</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.258679458703272</v>
@@ -39790,7 +39526,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.554807501249836</v>
+        <v>1.408539298457014</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.257566753558895</v>
@@ -39879,7 +39615,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.552983576239971</v>
+        <v>1.407013717680442</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.259610393471002</v>
@@ -39968,7 +39704,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.548965231763922</v>
+        <v>1.392526369678717</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.322886517051603</v>
@@ -40254,7 +39990,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.285231686904533</v>
+        <v>1.269577651817214</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.687417735973739</v>
@@ -40343,7 +40079,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.281700925792018</v>
+        <v>1.264879091945412</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.674542269942463</v>
@@ -40432,7 +40168,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.279013421135952</v>
+        <v>1.261822907024213</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.67341055715107</v>
@@ -40521,7 +40257,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.277432827304149</v>
+        <v>1.257043525100344</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.664621948724913</v>
@@ -40610,7 +40346,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.271810169305702</v>
+        <v>1.250572914913833</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.660854752215363</v>
@@ -40699,7 +40435,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.276683195929316</v>
+        <v>1.25338575046716</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.65205262831656</v>
@@ -40788,7 +40524,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.294029373738278</v>
+        <v>1.272430317067889</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.638549527174249</v>
@@ -40877,7 +40613,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.300319119450108</v>
+        <v>1.272800196026424</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.625678255027969</v>
@@ -40966,7 +40702,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.347341428758029</v>
+        <v>1.307372187064501</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.534038328764882</v>
@@ -41055,7 +40791,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.568206234948228</v>
+        <v>1.459892919628487</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.968080930074311</v>
@@ -41144,7 +40880,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.604117179880664</v>
+        <v>1.473700167285355</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.017463322443925</v>
@@ -41233,7 +40969,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.608481744092226</v>
+        <v>1.479536000358729</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.70588398448219</v>
@@ -41322,7 +41058,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.608333738723924</v>
+        <v>1.476393149443851</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.048787847835758</v>
@@ -41411,7 +41147,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.617293578061357</v>
+        <v>1.478792090459824</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.064185510616813</v>
@@ -41500,7 +41236,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.61041865478955</v>
+        <v>1.470430082519941</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.246802198453838</v>
@@ -41589,7 +41325,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.606781377156247</v>
+        <v>1.466457614206966</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.07450131237512</v>
@@ -41678,7 +41414,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.592370705662897</v>
+        <v>1.461119457224369</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.010928764626511</v>
@@ -41767,7 +41503,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.586674818518069</v>
+        <v>1.461645609387349</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.044975618341469</v>
@@ -41856,7 +41592,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.596664249088251</v>
+        <v>1.471304166432698</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.72157795244389</v>
@@ -41945,7 +41681,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.613051995395073</v>
+        <v>1.480711437040247</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.868538065196046</v>
@@ -42034,7 +41770,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.580776000079921</v>
+        <v>1.460248781467511</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.442537823775131</v>
@@ -42123,7 +41859,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.577475282668135</v>
+        <v>1.459983859655986</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.558811701111168</v>
@@ -42212,7 +41948,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.58474921968251</v>
+        <v>1.473758358039237</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.477294084807367</v>
@@ -42301,7 +42037,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.576282790163418</v>
+        <v>1.475841352626436</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.500334090487164</v>
@@ -42390,7 +42126,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.578485222297392</v>
+        <v>1.47422665468197</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.596091832484024</v>
@@ -42479,7 +42215,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.578975826110628</v>
+        <v>1.473938866619522</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.453876572023451</v>
@@ -42568,7 +42304,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.574427551025594</v>
+        <v>1.470466069513107</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.559155073167418</v>
@@ -42657,7 +42393,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.576244820996084</v>
+        <v>1.479509822000119</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.643509006086449</v>
@@ -42746,7 +42482,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.578135018333373</v>
+        <v>1.484050917080525</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.61757676923052</v>
@@ -42835,7 +42571,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.587320336017501</v>
+        <v>1.490002223454879</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.57583501581084</v>
@@ -42924,7 +42660,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.584016679489263</v>
+        <v>1.486329494138586</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.374963118837202</v>
@@ -43013,7 +42749,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.596167719634656</v>
+        <v>1.494660634614062</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.53635881974383</v>
@@ -43102,7 +42838,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.59520511881781</v>
+        <v>1.488704378202172</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.620766197620253</v>
@@ -43191,7 +42927,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.599014910190186</v>
+        <v>1.489345299971133</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.608549295842546</v>
@@ -43280,7 +43016,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.599008682391768</v>
+        <v>1.495712766361996</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.413190183963518</v>
@@ -43369,7 +43105,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.638711623133865</v>
+        <v>1.519202592426492</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.891734785793278</v>
@@ -43458,7 +43194,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.640980900297879</v>
+        <v>1.516881432745542</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.473424409194976</v>
@@ -43547,7 +43283,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.646105435300279</v>
+        <v>1.518007186677671</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.290339858097834</v>
@@ -43636,7 +43372,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.656432812030364</v>
+        <v>1.521802086882828</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.570511405074253</v>
@@ -43725,7 +43461,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.664110648438447</v>
+        <v>1.529053044243996</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.85893172040581</v>
@@ -43814,7 +43550,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.675855704103462</v>
+        <v>1.539184825651147</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.128343428257746</v>
@@ -43903,7 +43639,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.687313858935136</v>
+        <v>1.544779012505718</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.382113812544699</v>
@@ -43992,7 +43728,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.685495126934569</v>
+        <v>1.545270782219323</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.456168684062299</v>
@@ -44081,7 +43817,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.664443322632307</v>
+        <v>1.539289985903904</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.743931923840996</v>
@@ -44170,7 +43906,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.637012463676155</v>
+        <v>1.527012027406382</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.770852258395007</v>
@@ -44259,7 +43995,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.642816248678164</v>
+        <v>1.535005736879601</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.807065415365761</v>
@@ -44348,7 +44084,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.652354150570826</v>
+        <v>1.544034403334482</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.782507594088234</v>
@@ -44437,7 +44173,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.667454655981519</v>
+        <v>1.568089301791475</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.985636583292674</v>
@@ -44526,7 +44262,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.669870898018072</v>
+        <v>1.567976524506633</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.782565557742469</v>
@@ -44615,7 +44351,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.671861378289195</v>
+        <v>1.56416678514585</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.872505513150148</v>
@@ -44704,7 +44440,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.668227422358787</v>
+        <v>1.560373399695089</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.972696939948231</v>
@@ -44793,7 +44529,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.657263940395697</v>
+        <v>1.552919123222354</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.919034958610697</v>
@@ -44882,7 +44618,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.654906453225692</v>
+        <v>1.55326835049477</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.785815544706684</v>
@@ -44971,7 +44707,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.655515984699145</v>
+        <v>1.55185883879596</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.820425165361791</v>
@@ -45060,7 +44796,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.655392013907151</v>
+        <v>1.548700550645544</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.870327952445077</v>
@@ -45149,7 +44885,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.657042839906835</v>
+        <v>1.550092942660153</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.924710850523712</v>
@@ -45238,7 +44974,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.648121875727234</v>
+        <v>1.541730150288158</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.762982334091669</v>
@@ -45327,7 +45063,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.649521432382859</v>
+        <v>1.545426237553512</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.718075654328203</v>
@@ -45416,7 +45152,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.669626072626711</v>
+        <v>1.549603651120678</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.37529184407879</v>
@@ -45505,7 +45241,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.689231580943936</v>
+        <v>1.551209099465427</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.137198354057582</v>
@@ -45594,7 +45330,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.678610278272063</v>
+        <v>1.54064635666927</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.579069932538909</v>
@@ -45683,7 +45419,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.668312641854905</v>
+        <v>1.527669123700903</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.354587446245402</v>
@@ -45772,7 +45508,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.649664283834401</v>
+        <v>1.51368628769077</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.306149640756296</v>
@@ -45861,7 +45597,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.645594633845033</v>
+        <v>1.513245148647862</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.521848971649965</v>
@@ -45950,7 +45686,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.647596504903069</v>
+        <v>1.514513847991204</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.631725046460652</v>
@@ -46039,7 +45775,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.644323316125774</v>
+        <v>1.51395946903747</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.377805603671803</v>
@@ -46128,7 +45864,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.653812156540866</v>
+        <v>1.511123881689136</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.156067638145766</v>
@@ -46217,7 +45953,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.6449121185277</v>
+        <v>1.505080034367534</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.254681641885619</v>
@@ -46306,7 +46042,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.634451535251494</v>
+        <v>1.494100529940033</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.561173689599484</v>
@@ -46395,7 +46131,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.627841590614712</v>
+        <v>1.491335084890606</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.560964757791461</v>
@@ -46484,7 +46220,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.62241132018128</v>
+        <v>1.486937731826953</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.298152804290373</v>
@@ -46573,7 +46309,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.624376477995658</v>
+        <v>1.488843710386937</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.555348167899651</v>
@@ -46662,7 +46398,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.624645469117922</v>
+        <v>1.491903947338594</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.530502086388925</v>
@@ -46751,7 +46487,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.62206441229427</v>
+        <v>1.499076810483708</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.436224556053597</v>
@@ -46840,7 +46576,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.620343885434673</v>
+        <v>1.500849339385266</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.093066254195754</v>
@@ -46929,7 +46665,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.623348901165441</v>
+        <v>1.501250022663511</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.212340696878229</v>
@@ -47018,7 +46754,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.588338973304907</v>
+        <v>1.480080974661086</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.516653480601388</v>
@@ -47107,7 +46843,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.588874021294477</v>
+        <v>1.478250237168186</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.606301805891446</v>
@@ -47196,7 +46932,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.588499473305773</v>
+        <v>1.471290970984004</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.555153483517616</v>
@@ -47285,7 +47021,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.583332874455756</v>
+        <v>1.466419038593443</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.519720168841924</v>
@@ -47374,7 +47110,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.582990153924168</v>
+        <v>1.464996512496616</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.545499745239129</v>
@@ -47463,7 +47199,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.584139184938056</v>
+        <v>1.469460712597993</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.55675390633449</v>
@@ -47552,7 +47288,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.583322144238819</v>
+        <v>1.460058411421434</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.481323402381903</v>
@@ -47641,7 +47377,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.584840467676371</v>
+        <v>1.465257286634025</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.63074899391862</v>
@@ -47730,7 +47466,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.587934747967353</v>
+        <v>1.46542996001894</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.503871026880759</v>
@@ -47819,7 +47555,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.580062306835933</v>
+        <v>1.465316483825254</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.59045678230377</v>
@@ -47908,7 +47644,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.579502749522126</v>
+        <v>1.463258991296658</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.582351980540383</v>
@@ -48194,7 +47930,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.219852112563897</v>
+        <v>1.216457106245982</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.493616692760174</v>
@@ -48283,7 +48019,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.21650973311261</v>
+        <v>1.212795580738122</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.49122919625779</v>
@@ -48372,7 +48108,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.213985552795852</v>
+        <v>1.209318922072775</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.491968883232974</v>
@@ -48461,7 +48197,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.215547198584256</v>
+        <v>1.211081513326522</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.484670651259417</v>
@@ -48550,7 +48286,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.213151243469297</v>
+        <v>1.20703855747447</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.480663286387582</v>
@@ -48639,7 +48375,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.215931424056149</v>
+        <v>1.211162611531769</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.485673689257594</v>
@@ -48728,7 +48464,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.214318024497427</v>
+        <v>1.208698910679483</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.478091143412951</v>
@@ -48817,7 +48553,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.212310634717211</v>
+        <v>1.206281609666914</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.473960365041431</v>
@@ -48906,7 +48642,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.245403359686442</v>
+        <v>1.232642774178544</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.419713876887999</v>
@@ -48995,7 +48731,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.471367866523173</v>
+        <v>1.434363482963374</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.930870807787899</v>
@@ -49084,7 +48820,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.507431151078398</v>
+        <v>1.460135506630344</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.268991739781738</v>
@@ -49173,7 +48909,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.503678681529822</v>
+        <v>1.463995641144815</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.29324793791748</v>
@@ -49262,7 +48998,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.505067018489419</v>
+        <v>1.461113223016326</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.437437989707737</v>
@@ -49351,7 +49087,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.502039545625973</v>
+        <v>1.45936629307199</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.447112529944835</v>
@@ -49440,7 +49176,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.494262967313886</v>
+        <v>1.443263593822103</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.449710216613162</v>
@@ -49529,7 +49265,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.492024698836501</v>
+        <v>1.44174606429533</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.318519846390927</v>
@@ -49618,7 +49354,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.483395389543719</v>
+        <v>1.429665362489281</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.380567985546534</v>
@@ -49707,7 +49443,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.410174889841439</v>
+        <v>1.37363172834671</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.898388305618723</v>
@@ -49796,7 +49532,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.405782554337011</v>
+        <v>1.371398723165207</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.904479521040116</v>
@@ -49885,7 +49621,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.412422841173671</v>
+        <v>1.377422474880153</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.894682961290539</v>
@@ -49974,7 +49710,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.371110936295407</v>
+        <v>1.340618221215063</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.898090815803522</v>
@@ -50063,7 +49799,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.366151822319149</v>
+        <v>1.339689351562208</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.959738947236567</v>
@@ -50152,7 +49888,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.369685447809071</v>
+        <v>1.342297523481338</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.940381301028757</v>
@@ -50241,7 +49977,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.386925746726144</v>
+        <v>1.353739973594506</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.923858775496885</v>
@@ -50330,7 +50066,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.396605866673243</v>
+        <v>1.361326193632581</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.943486212861775</v>
@@ -50419,7 +50155,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.401187608519292</v>
+        <v>1.359860747401485</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.896320344711576</v>
@@ -50508,7 +50244,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.392599341735646</v>
+        <v>1.353020451591359</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.912796122819262</v>
@@ -50597,7 +50333,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.390788804917601</v>
+        <v>1.350045382079606</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.951415418451719</v>
@@ -50686,7 +50422,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.396349826955773</v>
+        <v>1.353369719296813</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.952452466649543</v>
@@ -50775,7 +50511,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.414053046992152</v>
+        <v>1.370401087481894</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.925360634967377</v>
@@ -50864,7 +50600,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.417182202763908</v>
+        <v>1.374524065909465</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.927263288270908</v>
@@ -50953,7 +50689,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.430362409642752</v>
+        <v>1.386904345085471</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.926163410092254</v>
@@ -51042,7 +50778,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.498891236755205</v>
+        <v>1.439391306655581</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.006045104931175</v>
@@ -51131,7 +50867,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.509079026925376</v>
+        <v>1.441918092196379</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.982555759695534</v>
@@ -51220,7 +50956,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.520492633853911</v>
+        <v>1.454843584290918</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.019542860099668</v>
@@ -51309,7 +51045,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.597411805441819</v>
+        <v>1.50423660545334</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.863044515715642</v>
@@ -51398,7 +51134,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.588893213595179</v>
+        <v>1.502745715998324</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.04664221796241</v>
@@ -51487,7 +51223,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.582628860732045</v>
+        <v>1.497733060483141</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.020758336309548</v>
@@ -51576,7 +51312,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.577502435500698</v>
+        <v>1.492268616069546</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.860053730922126</v>
@@ -51665,7 +51401,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.580640717124242</v>
+        <v>1.497773902094913</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.946759838589551</v>
@@ -51754,7 +51490,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.595241818504494</v>
+        <v>1.51038057814404</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.947831937033036</v>
@@ -51843,7 +51579,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.620704719112237</v>
+        <v>1.530126511459313</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.795006114058722</v>
@@ -51932,7 +51668,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.627709757517813</v>
+        <v>1.539578107870954</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.799256708678504</v>
@@ -52021,7 +51757,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.597482743837497</v>
+        <v>1.529116822075714</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.504223220851951</v>
@@ -52110,7 +51846,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.566581063758804</v>
+        <v>1.511882545332359</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.532014725286259</v>
@@ -52199,7 +51935,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.560396657785873</v>
+        <v>1.508347789139639</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.678463597610985</v>
@@ -52288,7 +52024,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.569784830744578</v>
+        <v>1.518438556372004</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.6103433390777</v>
@@ -52377,7 +52113,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.543849641507857</v>
+        <v>1.506884484974275</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.438108809445335</v>
@@ -52466,7 +52202,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.547872672084331</v>
+        <v>1.507988395708565</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.453735711740042</v>
@@ -52555,7 +52291,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.553657117808355</v>
+        <v>1.510603483511055</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.400510538012528</v>
@@ -52644,7 +52380,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.568304503496022</v>
+        <v>1.522816848829062</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.479113476207181</v>
@@ -52733,7 +52469,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.582605598602201</v>
+        <v>1.532134421336982</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.318490235334917</v>
@@ -52822,7 +52558,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.581724253069386</v>
+        <v>1.535569427265171</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.420494594693862</v>
@@ -52911,7 +52647,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.581789867341759</v>
+        <v>1.534767377356313</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.416300405995738</v>
@@ -53000,7 +52736,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.577991520939217</v>
+        <v>1.526944674062641</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.396274785791213</v>
@@ -53089,7 +52825,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.579756864608447</v>
+        <v>1.529562444236626</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.386020251920709</v>
@@ -53178,7 +52914,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.567515526488618</v>
+        <v>1.516596436318195</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.353804893318987</v>
@@ -53267,7 +53003,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.56013604846885</v>
+        <v>1.515159167257072</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.422061587555893</v>
@@ -53356,7 +53092,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.594998382865024</v>
+        <v>1.537255786445078</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.157954596904137</v>
@@ -53445,7 +53181,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.615990651366261</v>
+        <v>1.542426244578048</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.41186310165393</v>
@@ -53534,7 +53270,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.614272616864653</v>
+        <v>1.530807329354268</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.407262898253806</v>
@@ -53623,7 +53359,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.610437802985394</v>
+        <v>1.524475896412985</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.211973544507408</v>
@@ -53712,7 +53448,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.64507441450911</v>
+        <v>1.541760456619049</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.738725548254006</v>
@@ -53801,7 +53537,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.640780172974199</v>
+        <v>1.544130012839244</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.126582907896232</v>
@@ -53890,7 +53626,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.650642780175888</v>
+        <v>1.550020039564348</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.129006953712938</v>
@@ -53979,7 +53715,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.61864670065428</v>
+        <v>1.520007329674703</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.664038212035408</v>
@@ -54068,7 +53804,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.630777442951358</v>
+        <v>1.52816479486735</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.485861795127546</v>
@@ -54157,7 +53893,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.626997031692476</v>
+        <v>1.51935064290394</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.739471153998695</v>
@@ -54246,7 +53982,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.581855494466098</v>
+        <v>1.492189419784077</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.289838526600163</v>
@@ -54335,7 +54071,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.579037949820241</v>
+        <v>1.497030541161126</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.388146786535518</v>
@@ -54424,7 +54160,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.578962951603561</v>
+        <v>1.496580304118726</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.228859599671512</v>
@@ -54513,7 +54249,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.582483849746854</v>
+        <v>1.494167561868268</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.232748912480309</v>
@@ -54602,7 +54338,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.557446228610363</v>
+        <v>1.475409656251725</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.299816229523439</v>
@@ -54691,7 +54427,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.550736869414135</v>
+        <v>1.469872009727946</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.358199254098197</v>
@@ -54780,7 +54516,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.505942858276673</v>
+        <v>1.440133334992879</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.390218957571325</v>
@@ -54869,7 +54605,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.498615436438188</v>
+        <v>1.440805144434985</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.378208021342962</v>
@@ -54958,7 +54694,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.419484722887177</v>
+        <v>1.377692982231159</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.936789327492524</v>
@@ -55047,7 +54783,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.427623054485416</v>
+        <v>1.384503332569057</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.964338305412238</v>
@@ -55136,7 +54872,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.423828463481125</v>
+        <v>1.378066138536969</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.960235232808462</v>
@@ -55225,7 +54961,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.425576705019808</v>
+        <v>1.381320976247784</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.988476652560785</v>
@@ -55314,7 +55050,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.429453899289876</v>
+        <v>1.38718822233698</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.95026139305912</v>
@@ -55403,7 +55139,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.422651348883214</v>
+        <v>1.376064017069877</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.003006425482597</v>
@@ -55492,7 +55228,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.417033172487216</v>
+        <v>1.36923835370279</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>1.954885387162384</v>
@@ -55581,7 +55317,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.434237508953581</v>
+        <v>1.379704220738821</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>1.887543411519892</v>
@@ -55670,7 +55406,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.437043673370995</v>
+        <v>1.380168873089687</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>1.959383019213196</v>
@@ -55759,7 +55495,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.43191168236023</v>
+        <v>1.374701957518433</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>1.958556763627082</v>
@@ -55848,7 +55584,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.437226298951292</v>
+        <v>1.380529075141915</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>1.948921673250267</v>
